--- a/tabs/stats.xlsx
+++ b/tabs/stats.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="274">
   <si>
     <t xml:space="preserve">outcome</t>
   </si>
@@ -198,9 +198,9 @@
     <t xml:space="preserve">8.00 (3.25)</t>
   </si>
   <si>
-    <t xml:space="preserve">2retest &gt; 1baseline | CON
-2retest &gt; 1baseline | EXP
-3followup &lt; 2retest | EXP</t>
+    <t xml:space="preserve">2retest / 1baseline | CON
+2retest / 1baseline | EXP
+3followup / 2retest | EXP</t>
   </si>
   <si>
     <t xml:space="preserve">AVLT_T8</t>
@@ -239,9 +239,9 @@
     <t xml:space="preserve">12.50 (2.25)</t>
   </si>
   <si>
-    <t xml:space="preserve">2retest &gt; 1baseline | CON
-3followup &lt; 2retest | CON
-3followup &lt; 2retest | EXP</t>
+    <t xml:space="preserve">2retest / 1baseline | CON
+3followup / 2retest | CON
+3followup / 2retest | EXP</t>
   </si>
   <si>
     <t xml:space="preserve">AVLT_false</t>
@@ -262,10 +262,10 @@
     <t xml:space="preserve">1.00 (5.00)</t>
   </si>
   <si>
-    <t xml:space="preserve">EXP &gt; CON | 3followup
-3followup &gt; 2retest | EXP
-[ (EXP - CON) * (3followup - 1baseline ) ] &gt; 0
-[ (EXP - CON) * (3followup - 2retest ) ] &gt; 0</t>
+    <t xml:space="preserve">EXP / CON | 3followup
+3followup / 2retest | EXP
+[ (EXP / CON) * (3followup / 1baseline ) ] &gt; 0
+[ (EXP / CON) * (3followup / 2retest ) ] &gt; 0</t>
   </si>
   <si>
     <t xml:space="preserve">BMVTR_Total_1_3</t>
@@ -310,9 +310,9 @@
     <t xml:space="preserve">9.50 (4.50)</t>
   </si>
   <si>
-    <t xml:space="preserve">2retest &gt; 1baseline | EXP
-[ (EXP - CON) * (2retest - 1baseline ) ] &gt; 0
-[ (EXP - CON) * (3followup - 1baseline ) ] &gt; 0</t>
+    <t xml:space="preserve">2retest / 1baseline | EXP
+[ (EXP / CON) * (2retest / 1baseline ) ] &gt; 0
+[ (EXP / CON) * (3followup / 1baseline ) ] &gt; 0</t>
   </si>
   <si>
     <t xml:space="preserve">BVMTR_correct</t>
@@ -432,9 +432,9 @@
     <t xml:space="preserve">poisson</t>
   </si>
   <si>
-    <t xml:space="preserve">3followup &lt; 1baseline | CON
-3followup &lt; 2retest | CON
-[ (EXP - CON) * (3followup - 2retest ) ] &gt; 0</t>
+    <t xml:space="preserve">3followup / 1baseline | CON
+3followup / 2retest | CON
+[ (EXP / CON) * (3followup / 2retest ) ] &gt; 0</t>
   </si>
   <si>
     <t xml:space="preserve">TOL_HS</t>
@@ -731,6 +731,9 @@
     <t xml:space="preserve">29.00 (1.75)</t>
   </si>
   <si>
+    <t xml:space="preserve">2retest / 1baseline | CON</t>
+  </si>
+  <si>
     <t xml:space="preserve">BNT_semantic</t>
   </si>
   <si>
@@ -831,6 +834,18 @@
   </si>
   <si>
     <t xml:space="preserve">Total_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXP / CON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2retest / 1baseline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3followup / 1baseline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3followup / 2retest</t>
   </si>
   <si>
     <t xml:space="preserve">1baseline</t>
@@ -2146,30 +2161,30 @@
       </c>
       <c r="I32"/>
       <c r="J32" t="s">
-        <v>187</v>
+        <v>230</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B33" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C33" t="s">
+        <v>233</v>
+      </c>
+      <c r="D33" t="s">
+        <v>234</v>
+      </c>
+      <c r="E33" t="s">
         <v>232</v>
       </c>
-      <c r="D33" t="s">
-        <v>233</v>
-      </c>
-      <c r="E33" t="s">
-        <v>231</v>
-      </c>
       <c r="F33" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G33" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H33" t="s">
         <v>52</v>
@@ -2181,25 +2196,25 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B34" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C34" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D34" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E34" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F34" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G34" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H34" t="s">
         <v>52</v>
@@ -2225,34 +2240,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2">
@@ -2264,7 +2279,7 @@
       </c>
       <c r="C2"/>
       <c r="D2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E2" t="n">
         <v>-0.103658411753331</v>
@@ -2292,7 +2307,7 @@
       </c>
       <c r="C3"/>
       <c r="D3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E3" t="n">
         <v>0.373820974014979</v>
@@ -2310,7 +2325,7 @@
         <v>0.0380008741757612</v>
       </c>
       <c r="J3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4">
@@ -2322,7 +2337,7 @@
       </c>
       <c r="C4"/>
       <c r="D4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E4" t="n">
         <v>0.434404861067267</v>
@@ -2350,7 +2365,7 @@
       </c>
       <c r="C5"/>
       <c r="D5" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E5" t="n">
         <v>-0.0194676700367615</v>
@@ -2378,7 +2393,7 @@
       </c>
       <c r="C6"/>
       <c r="D6" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E6" t="n">
         <v>-0.31611018165294</v>
@@ -2406,7 +2421,7 @@
       </c>
       <c r="C7"/>
       <c r="D7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E7" t="n">
         <v>-0.416744976548651</v>
@@ -2434,7 +2449,7 @@
       </c>
       <c r="C8"/>
       <c r="D8" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E8" t="n">
         <v>0.300599167743444</v>
@@ -2462,7 +2477,7 @@
       </c>
       <c r="C9"/>
       <c r="D9" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E9" t="n">
         <v>-0.0694668628159168</v>
@@ -2490,7 +2505,7 @@
       </c>
       <c r="C10"/>
       <c r="D10" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E10" t="n">
         <v>-0.0981026147052905</v>
@@ -2518,7 +2533,7 @@
       </c>
       <c r="C11"/>
       <c r="D11" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E11" t="n">
         <v>-0.553423235091811</v>
@@ -2546,7 +2561,7 @@
       </c>
       <c r="C12"/>
       <c r="D12" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E12" t="n">
         <v>0.133121799235943</v>
@@ -2574,7 +2589,7 @@
       </c>
       <c r="C13"/>
       <c r="D13" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E13" t="n">
         <v>0.219527867346372</v>
@@ -2602,7 +2617,7 @@
       </c>
       <c r="C14"/>
       <c r="D14" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E14" t="n">
         <v>0.332489866856625</v>
@@ -2630,7 +2645,7 @@
       </c>
       <c r="C15"/>
       <c r="D15" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E15" t="n">
         <v>-0.117284273519849</v>
@@ -2658,7 +2673,7 @@
       </c>
       <c r="C16"/>
       <c r="D16" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E16" t="n">
         <v>0.0413290098970144</v>
@@ -2686,7 +2701,7 @@
       </c>
       <c r="C17"/>
       <c r="D17" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E17" t="n">
         <v>-0.441777860987201</v>
@@ -2714,7 +2729,7 @@
       </c>
       <c r="C18"/>
       <c r="D18" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E18" t="n">
         <v>-0.00942858644561239</v>
@@ -2742,7 +2757,7 @@
       </c>
       <c r="C19"/>
       <c r="D19" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E19" t="n">
         <v>-0.142440390225314</v>
@@ -2770,7 +2785,7 @@
       </c>
       <c r="C20"/>
       <c r="D20" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E20" t="n">
         <v>-0.032452482537224</v>
@@ -2798,7 +2813,7 @@
       </c>
       <c r="C21"/>
       <c r="D21" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E21" t="n">
         <v>-0.0358833162293284</v>
@@ -2826,7 +2841,7 @@
       </c>
       <c r="C22"/>
       <c r="D22" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E22" t="n">
         <v>0.169166205801637</v>
@@ -2854,7 +2869,7 @@
       </c>
       <c r="C23"/>
       <c r="D23" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E23" t="n">
         <v>-0.0554124946801708</v>
@@ -2882,7 +2897,7 @@
       </c>
       <c r="C24"/>
       <c r="D24" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E24" t="n">
         <v>0.308708363566403</v>
@@ -2910,7 +2925,7 @@
       </c>
       <c r="C25"/>
       <c r="D25" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E25" t="n">
         <v>-0.391442605095626</v>
@@ -2938,7 +2953,7 @@
       </c>
       <c r="C26"/>
       <c r="D26" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E26" t="n">
         <v>-0.00604805983630297</v>
@@ -2966,7 +2981,7 @@
       </c>
       <c r="C27"/>
       <c r="D27" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E27" t="n">
         <v>0.237735275103907</v>
@@ -2994,7 +3009,7 @@
       </c>
       <c r="C28"/>
       <c r="D28" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E28" t="n">
         <v>-0.0691300122510552</v>
@@ -3022,7 +3037,7 @@
       </c>
       <c r="C29"/>
       <c r="D29" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E29" t="n">
         <v>-0.279320159895528</v>
@@ -3050,7 +3065,7 @@
       </c>
       <c r="C30"/>
       <c r="D30" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E30" t="n">
         <v>0.228967377708083</v>
@@ -3078,7 +3093,7 @@
       </c>
       <c r="C31"/>
       <c r="D31" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E31" t="n">
         <v>-0.018263574589849</v>
@@ -3106,7 +3121,7 @@
       </c>
       <c r="C32"/>
       <c r="D32" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E32" t="n">
         <v>-1.08958706327595</v>
@@ -3122,7 +3137,7 @@
         <v>0.00000000000000000187020587140194</v>
       </c>
       <c r="J32" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="33">
@@ -3134,7 +3149,7 @@
       </c>
       <c r="C33"/>
       <c r="D33" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E33" t="n">
         <v>0.0647963741513176</v>
@@ -3160,7 +3175,7 @@
       </c>
       <c r="C34"/>
       <c r="D34" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E34" t="n">
         <v>0.0302265024606979</v>
@@ -3186,7 +3201,7 @@
       </c>
       <c r="C35"/>
       <c r="D35" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E35" t="n">
         <v>-0.00433058191975454</v>
@@ -3212,7 +3227,7 @@
       </c>
       <c r="C36"/>
       <c r="D36" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E36" t="n">
         <v>0.0936540586118715</v>
@@ -3238,7 +3253,7 @@
       </c>
       <c r="C37"/>
       <c r="D37" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E37" t="n">
         <v>-0.0856879572048176</v>
@@ -3264,7 +3279,7 @@
       </c>
       <c r="C38"/>
       <c r="D38" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E38" t="n">
         <v>-0.0246309847851604</v>
@@ -3290,7 +3305,7 @@
       </c>
       <c r="C39"/>
       <c r="D39" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E39" t="n">
         <v>0.408563908712915</v>
@@ -3306,7 +3321,7 @@
         <v>0.00680383529735417</v>
       </c>
       <c r="J39" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="40">
@@ -3318,7 +3333,7 @@
       </c>
       <c r="C40"/>
       <c r="D40" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E40" t="n">
         <v>0.0516540695204884</v>
@@ -3344,7 +3359,7 @@
       </c>
       <c r="C41"/>
       <c r="D41" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E41" t="n">
         <v>-0.163496541746473</v>
@@ -3370,7 +3385,7 @@
       </c>
       <c r="C42"/>
       <c r="D42" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E42" t="n">
         <v>0.18587039385963</v>
@@ -3396,7 +3411,7 @@
       </c>
       <c r="C43"/>
       <c r="D43" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E43" t="n">
         <v>-0.0508997553480957</v>
@@ -3422,7 +3437,7 @@
       </c>
       <c r="C44"/>
       <c r="D44" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E44" t="n">
         <v>-0.0865974755691502</v>
@@ -3448,7 +3463,7 @@
       </c>
       <c r="C45"/>
       <c r="D45" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E45" t="n">
         <v>0.430771662519096</v>
@@ -3464,7 +3479,7 @@
         <v>0.00607584347198403</v>
       </c>
       <c r="J45" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="46">
@@ -3476,7 +3491,7 @@
       </c>
       <c r="C46"/>
       <c r="D46" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E46" t="n">
         <v>0.2198056849005</v>
@@ -3502,7 +3517,7 @@
       </c>
       <c r="C47"/>
       <c r="D47" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E47" t="n">
         <v>-0.315914937209201</v>
@@ -3528,7 +3543,7 @@
       </c>
       <c r="C48"/>
       <c r="D48" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E48" t="n">
         <v>0.225890457326337</v>
@@ -3554,7 +3569,7 @@
       </c>
       <c r="C49"/>
       <c r="D49" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E49" t="n">
         <v>-0.0926441136788893</v>
@@ -3580,7 +3595,7 @@
       </c>
       <c r="C50"/>
       <c r="D50" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E50" t="n">
         <v>1.63171053213109</v>
@@ -3596,7 +3611,7 @@
         <v>0.000000000000000131963259902099</v>
       </c>
       <c r="J50" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="51">
@@ -3608,7 +3623,7 @@
       </c>
       <c r="C51"/>
       <c r="D51" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E51" t="n">
         <v>0.691142696228887</v>
@@ -3624,7 +3639,7 @@
         <v>0.000992615107458264</v>
       </c>
       <c r="J51" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="52">
@@ -3636,7 +3651,7 @@
       </c>
       <c r="C52"/>
       <c r="D52" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E52" t="n">
         <v>-0.487033113916582</v>
@@ -3662,7 +3677,7 @@
       </c>
       <c r="C53"/>
       <c r="D53" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E53" t="n">
         <v>0.204083146950588</v>
@@ -3688,7 +3703,7 @@
       </c>
       <c r="C54"/>
       <c r="D54" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E54" t="n">
         <v>-0.287038726007026</v>
@@ -3714,7 +3729,7 @@
       </c>
       <c r="C55"/>
       <c r="D55" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E55" t="n">
         <v>0.193153380312026</v>
@@ -3740,7 +3755,7 @@
       </c>
       <c r="C56"/>
       <c r="D56" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E56" t="n">
         <v>-2.67189758449245</v>
@@ -3756,7 +3771,7 @@
         <v>0.000000000000000000000000000000037521073220697</v>
       </c>
       <c r="J56" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="57">
@@ -3768,7 +3783,7 @@
       </c>
       <c r="C57"/>
       <c r="D57" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E57" t="n">
         <v>-0.240507905019161</v>
@@ -3794,7 +3809,7 @@
       </c>
       <c r="C58"/>
       <c r="D58" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E58" t="n">
         <v>-0.301358516541066</v>
@@ -3820,7 +3835,7 @@
       </c>
       <c r="C59"/>
       <c r="D59" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E59" t="n">
         <v>0.0673737656709704</v>
@@ -3846,7 +3861,7 @@
       </c>
       <c r="C60"/>
       <c r="D60" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E60" t="n">
         <v>-0.0501417767074078</v>
@@ -3872,7 +3887,7 @@
       </c>
       <c r="C61"/>
       <c r="D61" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E61" t="n">
         <v>0.716013272864434</v>
@@ -3888,7 +3903,7 @@
         <v>0.0220758367226925</v>
       </c>
       <c r="J61" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="62">
@@ -3900,7 +3915,7 @@
       </c>
       <c r="C62"/>
       <c r="D62" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E62" t="n">
         <v>-0.314943514326036</v>
@@ -3928,7 +3943,7 @@
       </c>
       <c r="C63"/>
       <c r="D63" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E63" t="n">
         <v>0.439371747353852</v>
@@ -3946,7 +3961,7 @@
         <v>0.028302269749584</v>
       </c>
       <c r="J63" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="64">
@@ -3958,7 +3973,7 @@
       </c>
       <c r="C64"/>
       <c r="D64" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E64" t="n">
         <v>0.0431681519015319</v>
@@ -3986,7 +4001,7 @@
       </c>
       <c r="C65"/>
       <c r="D65" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E65" t="n">
         <v>0.163487161806084</v>
@@ -4014,7 +4029,7 @@
       </c>
       <c r="C66"/>
       <c r="D66" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E66" t="n">
         <v>-0.0051089738064399</v>
@@ -4042,7 +4057,7 @@
       </c>
       <c r="C67"/>
       <c r="D67" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E67" t="n">
         <v>0.227815162729184</v>
@@ -4070,7 +4085,7 @@
       </c>
       <c r="C68"/>
       <c r="D68" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E68" t="n">
         <v>1.01013866035676</v>
@@ -4086,7 +4101,7 @@
         <v>0.000112483540995012</v>
       </c>
       <c r="J68" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="69">
@@ -4098,7 +4113,7 @@
       </c>
       <c r="C69"/>
       <c r="D69" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E69" t="n">
         <v>0.213995722995137</v>
@@ -4124,7 +4139,7 @@
       </c>
       <c r="C70"/>
       <c r="D70" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E70" t="n">
         <v>-0.244296770647193</v>
@@ -4150,7 +4165,7 @@
       </c>
       <c r="C71"/>
       <c r="D71" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E71" t="n">
         <v>-0.242880415974013</v>
@@ -4176,7 +4191,7 @@
       </c>
       <c r="C72"/>
       <c r="D72" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E72" t="n">
         <v>0.707994850616509</v>
@@ -4192,7 +4207,7 @@
         <v>0.0126459139066311</v>
       </c>
       <c r="J72" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="73">
@@ -4204,7 +4219,7 @@
       </c>
       <c r="C73"/>
       <c r="D73" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E73" t="n">
         <v>0.861317770352831</v>
@@ -4220,7 +4235,7 @@
         <v>0.0339503525620956</v>
       </c>
       <c r="J73" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="74">
@@ -4232,7 +4247,7 @@
       </c>
       <c r="C74"/>
       <c r="D74" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E74" t="n">
         <v>2.57837399470941</v>
@@ -4248,7 +4263,7 @@
         <v>0.0000000000139718004664917</v>
       </c>
       <c r="J74" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="75">
@@ -4260,7 +4275,7 @@
       </c>
       <c r="C75"/>
       <c r="D75" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E75" t="n">
         <v>0.869600889980926</v>
@@ -4286,7 +4301,7 @@
       </c>
       <c r="C76"/>
       <c r="D76" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E76" t="n">
         <v>0.693800130198513</v>
@@ -4312,7 +4327,7 @@
       </c>
       <c r="C77"/>
       <c r="D77" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E77" t="n">
         <v>0.389499049219093</v>
@@ -4338,7 +4353,7 @@
       </c>
       <c r="C78"/>
       <c r="D78" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E78" t="n">
         <v>-0.316861510701411</v>
@@ -4364,7 +4379,7 @@
       </c>
       <c r="C79"/>
       <c r="D79" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E79" t="n">
         <v>-0.614802555396551</v>
@@ -4390,7 +4405,7 @@
       </c>
       <c r="C80"/>
       <c r="D80" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E80" t="n">
         <v>-3.91368450702104</v>
@@ -4406,7 +4421,7 @@
         <v>0.00000000244468133391032</v>
       </c>
       <c r="J80" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="81">
@@ -4418,7 +4433,7 @@
       </c>
       <c r="C81"/>
       <c r="D81" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E81" t="n">
         <v>-0.44080589301669</v>
@@ -4444,7 +4459,7 @@
       </c>
       <c r="C82"/>
       <c r="D82" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E82" t="n">
         <v>-0.590330678048558</v>
@@ -4470,7 +4485,7 @@
       </c>
       <c r="C83"/>
       <c r="D83" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E83" t="n">
         <v>0.0112213201330346</v>
@@ -4496,7 +4511,7 @@
       </c>
       <c r="C84"/>
       <c r="D84" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E84" t="n">
         <v>-0.302337810951216</v>
@@ -4522,7 +4537,7 @@
       </c>
       <c r="C85"/>
       <c r="D85" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E85" t="n">
         <v>-0.423851857823453</v>
@@ -4550,7 +4565,7 @@
         <v>109</v>
       </c>
       <c r="D86" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E86" t="n">
         <v>-0.188326419807036</v>
@@ -4580,7 +4595,7 @@
         <v>109</v>
       </c>
       <c r="D87" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E87" t="n">
         <v>0.126152323108064</v>
@@ -4610,7 +4625,7 @@
         <v>109</v>
       </c>
       <c r="D88" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E88" t="n">
         <v>1.39434556703912</v>
@@ -4628,7 +4643,7 @@
         <v>0.0000515778400281745</v>
       </c>
       <c r="J88" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="89">
@@ -4642,7 +4657,7 @@
         <v>109</v>
       </c>
       <c r="D89" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E89" t="n">
         <v>0.11505704047742</v>
@@ -4672,7 +4687,7 @@
         <v>109</v>
       </c>
       <c r="D90" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E90" t="n">
         <v>-0.235038689894395</v>
@@ -4702,7 +4717,7 @@
         <v>109</v>
       </c>
       <c r="D91" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E91" t="n">
         <v>-0.933785758813636</v>
@@ -4720,7 +4735,7 @@
         <v>0.0329088763084753</v>
       </c>
       <c r="J91" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="92">
@@ -4734,7 +4749,7 @@
         <v>109</v>
       </c>
       <c r="D92" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E92" t="n">
         <v>-0.0153706481752321</v>
@@ -4764,7 +4779,7 @@
         <v>109</v>
       </c>
       <c r="D93" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E93" t="n">
         <v>-0.100651146084083</v>
@@ -4794,7 +4809,7 @@
         <v>109</v>
       </c>
       <c r="D94" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E94" t="n">
         <v>0.896857127171803</v>
@@ -4812,7 +4827,7 @@
         <v>0.0051709723567898</v>
       </c>
       <c r="J94" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="95">
@@ -4826,7 +4841,7 @@
         <v>109</v>
       </c>
       <c r="D95" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E95" t="n">
         <v>-0.115332921986647</v>
@@ -4856,7 +4871,7 @@
         <v>109</v>
       </c>
       <c r="D96" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E96" t="n">
         <v>0.0937356289086416</v>
@@ -4886,7 +4901,7 @@
         <v>109</v>
       </c>
       <c r="D97" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E97" t="n">
         <v>-0.311966394234875</v>
@@ -4916,7 +4931,7 @@
         <v>109</v>
       </c>
       <c r="D98" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E98" t="n">
         <v>0.100714938870223</v>
@@ -4946,7 +4961,7 @@
         <v>109</v>
       </c>
       <c r="D99" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E99" t="n">
         <v>-0.127603325293596</v>
@@ -4976,7 +4991,7 @@
         <v>109</v>
       </c>
       <c r="D100" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E100" t="n">
         <v>0.312399235489203</v>
@@ -5006,7 +5021,7 @@
         <v>109</v>
       </c>
       <c r="D101" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E101" t="n">
         <v>-0.198958467424336</v>
@@ -5036,7 +5051,7 @@
         <v>109</v>
       </c>
       <c r="D102" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E102" t="n">
         <v>0.0738389231497205</v>
@@ -5066,7 +5081,7 @@
         <v>109</v>
       </c>
       <c r="D103" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E103" t="n">
         <v>-0.00312888973700462</v>
@@ -5094,7 +5109,7 @@
       </c>
       <c r="C104"/>
       <c r="D104" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E104" t="n">
         <v>0.0677864554303045</v>
@@ -5120,7 +5135,7 @@
       </c>
       <c r="C105"/>
       <c r="D105" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E105" t="n">
         <v>-0.133551747546008</v>
@@ -5146,7 +5161,7 @@
       </c>
       <c r="C106"/>
       <c r="D106" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E106" t="n">
         <v>-1.76372764628393</v>
@@ -5162,7 +5177,7 @@
         <v>0.00372419740695898</v>
       </c>
       <c r="J106" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="107">
@@ -5174,7 +5189,7 @@
       </c>
       <c r="C107"/>
       <c r="D107" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E107" t="n">
         <v>-0.275277843177515</v>
@@ -5200,7 +5215,7 @@
       </c>
       <c r="C108"/>
       <c r="D108" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E108" t="n">
         <v>-0.237975606966727</v>
@@ -5226,7 +5241,7 @@
       </c>
       <c r="C109"/>
       <c r="D109" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E109" t="n">
         <v>1.23998536205408</v>
@@ -5252,7 +5267,7 @@
       </c>
       <c r="C110"/>
       <c r="D110" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E110" t="n">
         <v>-0.0259707869894966</v>
@@ -5280,7 +5295,7 @@
       </c>
       <c r="C111"/>
       <c r="D111" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E111" t="n">
         <v>0.0873683911031271</v>
@@ -5308,7 +5323,7 @@
       </c>
       <c r="C112"/>
       <c r="D112" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E112" t="n">
         <v>-1.45612400167896</v>
@@ -5326,7 +5341,7 @@
         <v>0.0000166610398642246</v>
       </c>
       <c r="J112" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="113">
@@ -5338,7 +5353,7 @@
       </c>
       <c r="C113"/>
       <c r="D113" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E113" t="n">
         <v>0.327631466636727</v>
@@ -5366,7 +5381,7 @@
       </c>
       <c r="C114"/>
       <c r="D114" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E114" t="n">
         <v>-0.291950339914576</v>
@@ -5394,7 +5409,7 @@
       </c>
       <c r="C115"/>
       <c r="D115" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E115" t="n">
         <v>1.14855383101199</v>
@@ -5412,7 +5427,7 @@
         <v>0.00742372104785802</v>
       </c>
       <c r="J115" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="116">
@@ -5424,7 +5439,7 @@
       </c>
       <c r="C116"/>
       <c r="D116" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E116" t="n">
         <v>-0.627369383665592</v>
@@ -5440,7 +5455,7 @@
         <v>0.00000000461739824978194</v>
       </c>
       <c r="J116" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="117">
@@ -5452,7 +5467,7 @@
       </c>
       <c r="C117"/>
       <c r="D117" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E117" t="n">
         <v>0.00820882969535104</v>
@@ -5478,7 +5493,7 @@
       </c>
       <c r="C118"/>
       <c r="D118" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E118" t="n">
         <v>-0.198830150150606</v>
@@ -5504,7 +5519,7 @@
       </c>
       <c r="C119"/>
       <c r="D119" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E119" t="n">
         <v>0.131905498947866</v>
@@ -5530,7 +5545,7 @@
       </c>
       <c r="C120"/>
       <c r="D120" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E120" t="n">
         <v>0.0703155358563816</v>
@@ -5556,7 +5571,7 @@
       </c>
       <c r="C121"/>
       <c r="D121" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E121" t="n">
         <v>0.0575918548405837</v>
@@ -5584,7 +5599,7 @@
         <v>109</v>
       </c>
       <c r="D122" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E122" t="n">
         <v>-0.141963872234335</v>
@@ -5614,7 +5629,7 @@
         <v>109</v>
       </c>
       <c r="D123" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E123" t="n">
         <v>-0.0038015260315104</v>
@@ -5644,7 +5659,7 @@
         <v>109</v>
       </c>
       <c r="D124" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E124" t="n">
         <v>0.895916563803436</v>
@@ -5662,7 +5677,7 @@
         <v>0.0109106294488723</v>
       </c>
       <c r="J124" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="125">
@@ -5676,7 +5691,7 @@
         <v>109</v>
       </c>
       <c r="D125" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E125" t="n">
         <v>0.118555216894946</v>
@@ -5706,7 +5721,7 @@
         <v>109</v>
       </c>
       <c r="D126" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E126" t="n">
         <v>0.147213885215439</v>
@@ -5736,7 +5751,7 @@
         <v>109</v>
       </c>
       <c r="D127" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E127" t="n">
         <v>-0.995518690482339</v>
@@ -5754,7 +5769,7 @@
         <v>0.0299599976812356</v>
       </c>
       <c r="J127" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="128">
@@ -5768,7 +5783,7 @@
         <v>109</v>
       </c>
       <c r="D128" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E128" t="n">
         <v>-0.117332252656032</v>
@@ -5798,7 +5813,7 @@
         <v>109</v>
       </c>
       <c r="D129" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E129" t="n">
         <v>-0.0281473310066135</v>
@@ -5828,7 +5843,7 @@
         <v>109</v>
       </c>
       <c r="D130" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E130" t="n">
         <v>0.863974163598643</v>
@@ -5846,7 +5861,7 @@
         <v>0.00144583348565289</v>
       </c>
       <c r="J130" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="131">
@@ -5860,7 +5875,7 @@
         <v>109</v>
       </c>
       <c r="D131" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E131" t="n">
         <v>0.151055065630796</v>
@@ -5890,7 +5905,7 @@
         <v>109</v>
       </c>
       <c r="D132" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E132" t="n">
         <v>-0.00141326725789812</v>
@@ -5920,7 +5935,7 @@
         <v>109</v>
       </c>
       <c r="D133" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E133" t="n">
         <v>-0.99082776294838</v>
@@ -5938,7 +5953,7 @@
         <v>0.0048117966633047</v>
       </c>
       <c r="J133" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="134">
@@ -5950,7 +5965,7 @@
       </c>
       <c r="C134"/>
       <c r="D134" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E134" t="n">
         <v>0.172256169078148</v>
@@ -5978,7 +5993,7 @@
       </c>
       <c r="C135"/>
       <c r="D135" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E135" t="n">
         <v>-0.0314653872359056</v>
@@ -6006,7 +6021,7 @@
       </c>
       <c r="C136"/>
       <c r="D136" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E136" t="n">
         <v>-0.538700363642176</v>
@@ -6024,7 +6039,7 @@
         <v>0.0482566507715095</v>
       </c>
       <c r="J136" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="137">
@@ -6036,7 +6051,7 @@
       </c>
       <c r="C137"/>
       <c r="D137" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E137" t="n">
         <v>-0.198724253280984</v>
@@ -6064,7 +6079,7 @@
       </c>
       <c r="C138"/>
       <c r="D138" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E138" t="n">
         <v>0.0314653872359056</v>
@@ -6092,7 +6107,7 @@
       </c>
       <c r="C139"/>
       <c r="D139" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E139" t="n">
         <v>0.578332076607702</v>
@@ -6120,7 +6135,7 @@
       </c>
       <c r="C140"/>
       <c r="D140" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E140" t="n">
         <v>-0.433323107016603</v>
@@ -6138,7 +6153,7 @@
         <v>0.0258841323647985</v>
       </c>
       <c r="J140" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="141">
@@ -6150,7 +6165,7 @@
       </c>
       <c r="C141"/>
       <c r="D141" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E141" t="n">
         <v>0.261895310806015</v>
@@ -6178,7 +6193,7 @@
       </c>
       <c r="C142"/>
       <c r="D142" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E142" t="n">
         <v>0.674072316509772</v>
@@ -6196,7 +6211,7 @@
         <v>0.0085388022122977</v>
       </c>
       <c r="J142" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="143">
@@ -6208,7 +6223,7 @@
       </c>
       <c r="C143"/>
       <c r="D143" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E143" t="n">
         <v>0.414081870775911</v>
@@ -6236,7 +6251,7 @@
       </c>
       <c r="C144"/>
       <c r="D144" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E144" t="n">
         <v>0.132700354286323</v>
@@ -6264,7 +6279,7 @@
       </c>
       <c r="C145"/>
       <c r="D145" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E145" t="n">
         <v>-0.435313851717594</v>
@@ -6292,7 +6307,7 @@
       </c>
       <c r="C146"/>
       <c r="D146" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E146" t="n">
         <v>-0.474568934362816</v>
@@ -6310,7 +6325,7 @@
         <v>0.0151477183567371</v>
       </c>
       <c r="J146" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="147">
@@ -6322,7 +6337,7 @@
       </c>
       <c r="C147"/>
       <c r="D147" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E147" t="n">
         <v>0.518393227021798</v>
@@ -6340,7 +6355,7 @@
         <v>0.0148234737247621</v>
       </c>
       <c r="J147" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="148">
@@ -6352,7 +6367,7 @@
       </c>
       <c r="C148"/>
       <c r="D148" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E148" t="n">
         <v>0.579767335771366</v>
@@ -6380,7 +6395,7 @@
       </c>
       <c r="C149"/>
       <c r="D149" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E149" t="n">
         <v>0.427720567210398</v>
@@ -6408,7 +6423,7 @@
       </c>
       <c r="C150"/>
       <c r="D150" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E150" t="n">
         <v>-0.103450546528952</v>
@@ -6436,7 +6451,7 @@
       </c>
       <c r="C151"/>
       <c r="D151" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E151" t="n">
         <v>-0.407040365063027</v>
@@ -6464,7 +6479,7 @@
       </c>
       <c r="C152"/>
       <c r="D152" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E152" t="n">
         <v>-0.166443209983208</v>
@@ -6492,7 +6507,7 @@
       </c>
       <c r="C153"/>
       <c r="D153" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E153" t="n">
         <v>0.0952766079351775</v>
@@ -6520,7 +6535,7 @@
       </c>
       <c r="C154"/>
       <c r="D154" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E154" t="n">
         <v>-0.301931432096856</v>
@@ -6548,7 +6563,7 @@
       </c>
       <c r="C155"/>
       <c r="D155" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E155" t="n">
         <v>0.331077096071466</v>
@@ -6576,7 +6591,7 @@
       </c>
       <c r="C156"/>
       <c r="D156" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E156" t="n">
         <v>-0.0321516794412259</v>
@@ -6604,7 +6619,7 @@
       </c>
       <c r="C157"/>
       <c r="D157" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E157" t="n">
         <v>-0.0891035384857786</v>
@@ -6632,7 +6647,7 @@
       </c>
       <c r="C158"/>
       <c r="D158" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E158" t="n">
         <v>-0.120102239832748</v>
@@ -6660,7 +6675,7 @@
       </c>
       <c r="C159"/>
       <c r="D159" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E159" t="n">
         <v>0.130827181741233</v>
@@ -6688,7 +6703,7 @@
       </c>
       <c r="C160"/>
       <c r="D160" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E160" t="n">
         <v>-0.196817267834845</v>
@@ -6716,7 +6731,7 @@
       </c>
       <c r="C161"/>
       <c r="D161" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E161" t="n">
         <v>0.218495680237304</v>
@@ -6744,7 +6759,7 @@
       </c>
       <c r="C162"/>
       <c r="D162" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E162" t="n">
         <v>-0.0320087156761826</v>
@@ -6772,7 +6787,7 @@
       </c>
       <c r="C163"/>
       <c r="D163" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E163" t="n">
         <v>-0.203438799867797</v>
@@ -6800,7 +6815,7 @@
       </c>
       <c r="C164"/>
       <c r="D164" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E164" t="n">
         <v>-0.0637422945288909</v>
@@ -6828,7 +6843,7 @@
       </c>
       <c r="C165"/>
       <c r="D165" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E165" t="n">
         <v>0.204286245639754</v>
@@ -6856,7 +6871,7 @@
       </c>
       <c r="C166"/>
       <c r="D166" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E166" t="n">
         <v>-0.373326527217932</v>
@@ -6884,7 +6899,7 @@
       </c>
       <c r="C167"/>
       <c r="D167" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E167" t="n">
         <v>0.19446317449758</v>
@@ -6912,7 +6927,7 @@
       </c>
       <c r="C168"/>
       <c r="D168" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E168" t="n">
         <v>-0.264321020143892</v>
@@ -6940,7 +6955,7 @@
       </c>
       <c r="C169"/>
       <c r="D169" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E169" t="n">
         <v>-0.0874930756475414</v>
@@ -6968,7 +6983,7 @@
       </c>
       <c r="C170"/>
       <c r="D170" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E170" t="n">
         <v>0.0207665704049949</v>
@@ -6996,7 +7011,7 @@
       </c>
       <c r="C171"/>
       <c r="D171" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E171" t="n">
         <v>-0.0258413189316592</v>
@@ -7024,7 +7039,7 @@
       </c>
       <c r="C172"/>
       <c r="D172" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E172" t="n">
         <v>-0.435783731531188</v>
@@ -7052,7 +7067,7 @@
       </c>
       <c r="C173"/>
       <c r="D173" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E173" t="n">
         <v>0.0382805160085657</v>
@@ -7080,7 +7095,7 @@
       </c>
       <c r="C174"/>
       <c r="D174" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E174" t="n">
         <v>0.015920128260546</v>
@@ -7108,7 +7123,7 @@
       </c>
       <c r="C175"/>
       <c r="D175" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E175" t="n">
         <v>0.296188984646525</v>
@@ -7136,7 +7151,7 @@
       </c>
       <c r="C176"/>
       <c r="D176" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E176" t="n">
         <v>0.0132284685411497</v>
@@ -7164,7 +7179,7 @@
       </c>
       <c r="C177"/>
       <c r="D177" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E177" t="n">
         <v>-0.151281515794447</v>
@@ -7192,7 +7207,7 @@
       </c>
       <c r="C178"/>
       <c r="D178" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E178" t="n">
         <v>-0.403083996394981</v>
@@ -7220,7 +7235,7 @@
       </c>
       <c r="C179"/>
       <c r="D179" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E179" t="n">
         <v>0.00121766528792335</v>
@@ -7248,7 +7263,7 @@
       </c>
       <c r="C180"/>
       <c r="D180" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E180" t="n">
         <v>0.232705179194678</v>
@@ -7276,7 +7291,7 @@
       </c>
       <c r="C181"/>
       <c r="D181" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E181" t="n">
         <v>0.61559803998837</v>
@@ -7304,7 +7319,7 @@
       </c>
       <c r="C182"/>
       <c r="D182" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E182" t="n">
         <v>2.45521027268065</v>
@@ -7320,7 +7335,7 @@
         <v>0.00000000000000000000000000000000000041679856478043</v>
       </c>
       <c r="J182" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="183">
@@ -7332,7 +7347,7 @@
       </c>
       <c r="C183"/>
       <c r="D183" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E183" t="n">
         <v>0.49510699734469</v>
@@ -7348,7 +7363,7 @@
         <v>0.0134401255300467</v>
       </c>
       <c r="J183" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="184">
@@ -7360,7 +7375,7 @@
       </c>
       <c r="C184"/>
       <c r="D184" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E184" t="n">
         <v>0.664126134033941</v>
@@ -7376,7 +7391,7 @@
         <v>0.0387334530956671</v>
       </c>
       <c r="J184" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="185">
@@ -7388,7 +7403,7 @@
       </c>
       <c r="C185"/>
       <c r="D185" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E185" t="n">
         <v>0.0957783447725411</v>
@@ -7414,7 +7429,7 @@
       </c>
       <c r="C186"/>
       <c r="D186" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E186" t="n">
         <v>-0.0878655423841994</v>
@@ -7440,7 +7455,7 @@
       </c>
       <c r="C187"/>
       <c r="D187" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E187" t="n">
         <v>-0.593614895092671</v>
@@ -7459,14 +7474,14 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B188" t="s">
         <v>52</v>
       </c>
       <c r="C188"/>
       <c r="D188" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E188" t="n">
         <v>3.25344937042479</v>
@@ -7482,19 +7497,19 @@
         <v>0.000000000000000000000000000000000000000249192730859932</v>
       </c>
       <c r="J188" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B189" t="s">
         <v>52</v>
       </c>
       <c r="C189"/>
       <c r="D189" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E189" t="n">
         <v>0.58569869218538</v>
@@ -7510,19 +7525,19 @@
         <v>0.0386741825148418</v>
       </c>
       <c r="J189" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B190" t="s">
         <v>52</v>
       </c>
       <c r="C190"/>
       <c r="D190" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E190" t="n">
         <v>0.74738415137493</v>
@@ -7541,14 +7556,14 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B191" t="s">
         <v>52</v>
       </c>
       <c r="C191"/>
       <c r="D191" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E191" t="n">
         <v>0.107655037889764</v>
@@ -7567,14 +7582,14 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B192" t="s">
         <v>52</v>
       </c>
       <c r="C192"/>
       <c r="D192" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E192" t="n">
         <v>-0.110006861866954</v>
@@ -7593,14 +7608,14 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B193" t="s">
         <v>52</v>
       </c>
       <c r="C193"/>
       <c r="D193" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E193" t="n">
         <v>0.310446684279001</v>
@@ -7619,14 +7634,14 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B194" t="s">
         <v>52</v>
       </c>
       <c r="C194"/>
       <c r="D194" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E194" t="n">
         <v>4.5825313276641</v>
@@ -7642,19 +7657,19 @@
         <v>0.000000000000000000000000408827060925833</v>
       </c>
       <c r="J194" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B195" t="s">
         <v>52</v>
       </c>
       <c r="C195"/>
       <c r="D195" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E195" t="n">
         <v>0.796179533131963</v>
@@ -7673,14 +7688,14 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B196" t="s">
         <v>52</v>
       </c>
       <c r="C196"/>
       <c r="D196" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E196" t="n">
         <v>0.466581371643793</v>
@@ -7699,14 +7714,14 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B197" t="s">
         <v>52</v>
       </c>
       <c r="C197"/>
       <c r="D197" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E197" t="n">
         <v>0.347359168034395</v>
@@ -7725,14 +7740,14 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B198" t="s">
         <v>52</v>
       </c>
       <c r="C198"/>
       <c r="D198" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E198" t="n">
         <v>0.430155606551977</v>
@@ -7751,14 +7766,14 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B199" t="s">
         <v>52</v>
       </c>
       <c r="C199"/>
       <c r="D199" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E199" t="n">
         <v>25.0265635936483</v>
@@ -7794,28 +7809,28 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2">
@@ -7823,10 +7838,10 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D2" t="n">
         <v>-0.31611018165294</v>
@@ -7850,10 +7865,10 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D3" t="n">
         <v>-0.416744976548651</v>
@@ -7877,10 +7892,10 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D4" t="n">
         <v>-0.100634794895711</v>
@@ -7904,10 +7919,10 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C5" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D5" t="n">
         <v>0.133121799235943</v>
@@ -7931,10 +7946,10 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C6" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D6" t="n">
         <v>0.219527867346372</v>
@@ -7958,10 +7973,10 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D7" t="n">
         <v>0.0864060681104288</v>
@@ -7985,10 +8000,10 @@
         <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C8" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D8" t="n">
         <v>-0.00942858644561239</v>
@@ -8012,10 +8027,10 @@
         <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C9" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D9" t="n">
         <v>-0.142440390225314</v>
@@ -8039,10 +8054,10 @@
         <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C10" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D10" t="n">
         <v>-0.133011803779701</v>
@@ -8066,10 +8081,10 @@
         <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C11" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D11" t="n">
         <v>0.308708363566403</v>
@@ -8093,10 +8108,10 @@
         <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C12" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D12" t="n">
         <v>-0.391442605095626</v>
@@ -8120,10 +8135,10 @@
         <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C13" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D13" t="n">
         <v>-0.700150968662029</v>
@@ -8144,13 +8159,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B14" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C14" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D14" t="n">
         <v>0.228967377708083</v>
@@ -8171,13 +8186,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B15" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C15" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D15" t="n">
         <v>-0.018263574589849</v>
@@ -8198,13 +8213,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>264</v>
+      </c>
+      <c r="B16" t="s">
+        <v>260</v>
+      </c>
+      <c r="C16" t="s">
         <v>263</v>
-      </c>
-      <c r="B16" t="s">
-        <v>259</v>
-      </c>
-      <c r="C16" t="s">
-        <v>262</v>
       </c>
       <c r="D16" t="n">
         <v>-0.247230952297932</v>
@@ -8228,16 +8243,16 @@
         <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C17" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0936540586118715</v>
+        <v>1.09817977436146</v>
       </c>
       <c r="E17" t="n">
-        <v>0.228708412069711</v>
+        <v>0.251162952361283</v>
       </c>
       <c r="F17" t="e">
         <v>#NUM!</v>
@@ -8255,16 +8270,16 @@
         <v>47</v>
       </c>
       <c r="B18" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C18" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.0856879572048176</v>
+        <v>0.91788060456695</v>
       </c>
       <c r="E18" t="n">
-        <v>0.327289709942151</v>
+        <v>0.300412876830243</v>
       </c>
       <c r="F18" t="e">
         <v>#NUM!</v>
@@ -8282,16 +8297,16 @@
         <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C19" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.179342015816689</v>
+        <v>0.835819986851108</v>
       </c>
       <c r="E19" t="n">
-        <v>0.325269143628868</v>
+        <v>0.271866451350951</v>
       </c>
       <c r="F19" t="e">
         <v>#NUM!</v>
@@ -8309,16 +8324,16 @@
         <v>53</v>
       </c>
       <c r="B20" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C20" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="D20" t="n">
-        <v>0.18587039385963</v>
+        <v>1.20426616997244</v>
       </c>
       <c r="E20" t="n">
-        <v>0.215327978247524</v>
+        <v>0.259312199652056</v>
       </c>
       <c r="F20" t="e">
         <v>#NUM!</v>
@@ -8336,16 +8351,16 @@
         <v>53</v>
       </c>
       <c r="B21" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C21" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.0508997553480957</v>
+        <v>0.950373935661797</v>
       </c>
       <c r="E21" t="n">
-        <v>0.316486515203165</v>
+        <v>0.300780535037519</v>
       </c>
       <c r="F21" t="e">
         <v>#NUM!</v>
@@ -8363,16 +8378,16 @@
         <v>53</v>
       </c>
       <c r="B22" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C22" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.236770149207726</v>
+        <v>0.789172659133607</v>
       </c>
       <c r="E22" t="n">
-        <v>0.317896003578066</v>
+        <v>0.250874834471649</v>
       </c>
       <c r="F22" t="e">
         <v>#NUM!</v>
@@ -8390,16 +8405,16 @@
         <v>61</v>
       </c>
       <c r="B23" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C23" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="D23" t="n">
-        <v>0.225890457326337</v>
+        <v>1.2534383527691</v>
       </c>
       <c r="E23" t="n">
-        <v>0.222009129920145</v>
+        <v>0.278274758106808</v>
       </c>
       <c r="F23" t="e">
         <v>#NUM!</v>
@@ -8417,16 +8432,16 @@
         <v>61</v>
       </c>
       <c r="B24" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C24" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.0926441136788893</v>
+        <v>0.911517839309267</v>
       </c>
       <c r="E24" t="n">
-        <v>0.32504106962877</v>
+        <v>0.29628073347479</v>
       </c>
       <c r="F24" t="e">
         <v>#NUM!</v>
@@ -8444,16 +8459,16 @@
         <v>61</v>
       </c>
       <c r="B25" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C25" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.318534571005226</v>
+        <v>0.727213937004192</v>
       </c>
       <c r="E25" t="n">
-        <v>0.325839069885693</v>
+        <v>0.236954712841359</v>
       </c>
       <c r="F25" t="e">
         <v>#NUM!</v>
@@ -8471,16 +8486,16 @@
         <v>67</v>
       </c>
       <c r="B26" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C26" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.287038726007026</v>
+        <v>0.750482665077349</v>
       </c>
       <c r="E26" t="n">
-        <v>0.301717711741657</v>
+        <v>0.226433912408919</v>
       </c>
       <c r="F26" t="e">
         <v>#NUM!</v>
@@ -8498,16 +8513,16 @@
         <v>67</v>
       </c>
       <c r="B27" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C27" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="D27" t="n">
-        <v>0.193153380312026</v>
+        <v>1.21306884012802</v>
       </c>
       <c r="E27" t="n">
-        <v>0.391485738649923</v>
+        <v>0.474899150910723</v>
       </c>
       <c r="F27" t="e">
         <v>#NUM!</v>
@@ -8525,16 +8540,16 @@
         <v>67</v>
       </c>
       <c r="B28" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C28" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="D28" t="n">
-        <v>0.480192106319052</v>
+        <v>1.61638489012</v>
       </c>
       <c r="E28" t="n">
-        <v>0.412067539580311</v>
+        <v>0.666059744686542</v>
       </c>
       <c r="F28" t="e">
         <v>#NUM!</v>
@@ -8552,16 +8567,16 @@
         <v>74</v>
       </c>
       <c r="B29" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C29" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.0501417767074078</v>
+        <v>0.951094571884625</v>
       </c>
       <c r="E29" t="n">
-        <v>0.203827362291655</v>
+        <v>0.193859097877154</v>
       </c>
       <c r="F29" t="e">
         <v>#NUM!</v>
@@ -8579,16 +8594,16 @@
         <v>74</v>
       </c>
       <c r="B30" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C30" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="D30" t="n">
-        <v>0.716013272864434</v>
+        <v>2.04625905091368</v>
       </c>
       <c r="E30" t="n">
-        <v>0.312797878853225</v>
+        <v>0.640065490710011</v>
       </c>
       <c r="F30" t="e">
         <v>#NUM!</v>
@@ -8600,7 +8615,7 @@
         <v>0.0220758367226925</v>
       </c>
       <c r="I30" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="31">
@@ -8608,16 +8623,16 @@
         <v>74</v>
       </c>
       <c r="B31" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C31" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="D31" t="n">
-        <v>0.766155049571841</v>
+        <v>2.1514780037688</v>
       </c>
       <c r="E31" t="n">
-        <v>0.319132562574976</v>
+        <v>0.686606688666432</v>
       </c>
       <c r="F31" t="e">
         <v>#NUM!</v>
@@ -8629,7 +8644,7 @@
         <v>0.0163618535086123</v>
       </c>
       <c r="I31" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="32">
@@ -8637,10 +8652,10 @@
         <v>81</v>
       </c>
       <c r="B32" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C32" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D32" t="n">
         <v>-0.0051089738064399</v>
@@ -8664,10 +8679,10 @@
         <v>81</v>
       </c>
       <c r="B33" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C33" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D33" t="n">
         <v>0.227815162729184</v>
@@ -8691,10 +8706,10 @@
         <v>81</v>
       </c>
       <c r="B34" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C34" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D34" t="n">
         <v>0.232924136535624</v>
@@ -8718,16 +8733,16 @@
         <v>88</v>
       </c>
       <c r="B35" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C35" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="D35" t="n">
-        <v>0.707994850616509</v>
+        <v>2.02991688855391</v>
       </c>
       <c r="E35" t="n">
-        <v>0.283926123961762</v>
+        <v>0.576346434131634</v>
       </c>
       <c r="F35" t="e">
         <v>#NUM!</v>
@@ -8739,7 +8754,7 @@
         <v>0.0126459139066311</v>
       </c>
       <c r="I35" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="36">
@@ -8747,16 +8762,16 @@
         <v>88</v>
       </c>
       <c r="B36" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C36" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="D36" t="n">
-        <v>0.861317770352831</v>
+        <v>2.36627684954489</v>
       </c>
       <c r="E36" t="n">
-        <v>0.406155357855614</v>
+        <v>0.961076020612358</v>
       </c>
       <c r="F36" t="e">
         <v>#NUM!</v>
@@ -8768,7 +8783,7 @@
         <v>0.0339503525620956</v>
       </c>
       <c r="I36" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="37">
@@ -8776,16 +8791,16 @@
         <v>88</v>
       </c>
       <c r="B37" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C37" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="D37" t="n">
-        <v>0.153322919736321</v>
+        <v>1.16570134614259</v>
       </c>
       <c r="E37" t="n">
-        <v>0.418497672396963</v>
+        <v>0.487843300070682</v>
       </c>
       <c r="F37" t="e">
         <v>#NUM!</v>
@@ -8803,16 +8818,16 @@
         <v>96</v>
       </c>
       <c r="B38" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C38" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.316861510701411</v>
+        <v>0.728431628125874</v>
       </c>
       <c r="E38" t="n">
-        <v>0.724575647079642</v>
+        <v>0.527803818302582</v>
       </c>
       <c r="F38" t="e">
         <v>#NUM!</v>
@@ -8830,16 +8845,16 @@
         <v>96</v>
       </c>
       <c r="B39" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C39" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.614802555396551</v>
+        <v>0.540747652475466</v>
       </c>
       <c r="E39" t="n">
-        <v>1.04071195197732</v>
+        <v>0.562762544934896</v>
       </c>
       <c r="F39" t="e">
         <v>#NUM!</v>
@@ -8857,16 +8872,16 @@
         <v>96</v>
       </c>
       <c r="B40" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C40" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.29794104469514</v>
+        <v>0.742345103639601</v>
       </c>
       <c r="E40" t="n">
-        <v>1.11024471805225</v>
+        <v>0.824184730287815</v>
       </c>
       <c r="F40" t="e">
         <v>#NUM!</v>
@@ -8884,16 +8899,16 @@
         <v>100</v>
       </c>
       <c r="B41" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C41" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.302337810951216</v>
+        <v>0.739088350575051</v>
       </c>
       <c r="E41" t="n">
-        <v>0.992663581903928</v>
+        <v>0.733666089425297</v>
       </c>
       <c r="F41" t="e">
         <v>#NUM!</v>
@@ -8911,16 +8926,16 @@
         <v>100</v>
       </c>
       <c r="B42" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C42" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.423851857823453</v>
+        <v>0.654520836868491</v>
       </c>
       <c r="E42" t="n">
-        <v>1.62632134483697</v>
+        <v>1.06446120763979</v>
       </c>
       <c r="F42" t="e">
         <v>#NUM!</v>
@@ -8938,16 +8953,16 @@
         <v>100</v>
       </c>
       <c r="B43" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C43" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.121514046872238</v>
+        <v>0.885578613651856</v>
       </c>
       <c r="E43" t="n">
-        <v>1.70151684074876</v>
+        <v>1.50682692493557</v>
       </c>
       <c r="F43" t="e">
         <v>#NUM!</v>
@@ -8965,10 +8980,10 @@
         <v>102</v>
       </c>
       <c r="B44" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C44" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D44" t="n">
         <v>-0.235038689894395</v>
@@ -8992,10 +9007,10 @@
         <v>102</v>
       </c>
       <c r="B45" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C45" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D45" t="n">
         <v>-0.933785758813636</v>
@@ -9013,7 +9028,7 @@
         <v>0.03860902486827</v>
       </c>
       <c r="I45" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="46">
@@ -9021,10 +9036,10 @@
         <v>102</v>
       </c>
       <c r="B46" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C46" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D46" t="n">
         <v>-0.698747068919242</v>
@@ -9048,10 +9063,10 @@
         <v>111</v>
       </c>
       <c r="B47" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C47" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D47" t="n">
         <v>0.0937356289086416</v>
@@ -9075,10 +9090,10 @@
         <v>111</v>
       </c>
       <c r="B48" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C48" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D48" t="n">
         <v>-0.311966394234875</v>
@@ -9102,10 +9117,10 @@
         <v>111</v>
       </c>
       <c r="B49" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C49" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D49" t="n">
         <v>-0.405702023143517</v>
@@ -9129,10 +9144,10 @@
         <v>119</v>
       </c>
       <c r="B50" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C50" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D50" t="n">
         <v>0.0738389231497205</v>
@@ -9156,10 +9171,10 @@
         <v>119</v>
       </c>
       <c r="B51" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C51" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D51" t="n">
         <v>-0.00312888973700462</v>
@@ -9183,10 +9198,10 @@
         <v>119</v>
       </c>
       <c r="B52" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C52" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D52" t="n">
         <v>-0.0769678128867251</v>
@@ -9210,16 +9225,16 @@
         <v>126</v>
       </c>
       <c r="B53" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C53" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.237975606966727</v>
+        <v>0.788221917982741</v>
       </c>
       <c r="E53" t="n">
-        <v>0.359332518290895</v>
+        <v>0.283233766760817</v>
       </c>
       <c r="F53" t="e">
         <v>#NUM!</v>
@@ -9237,16 +9252,16 @@
         <v>126</v>
       </c>
       <c r="B54" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C54" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="D54" t="n">
-        <v>1.23998536205408</v>
+        <v>3.45556288204987</v>
       </c>
       <c r="E54" t="n">
-        <v>0.737997797239049</v>
+        <v>2.55019779517382</v>
       </c>
       <c r="F54" t="e">
         <v>#NUM!</v>
@@ -9264,16 +9279,16 @@
         <v>126</v>
       </c>
       <c r="B55" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C55" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="D55" t="n">
-        <v>1.4779609690208</v>
+        <v>4.38399745454114</v>
       </c>
       <c r="E55" t="n">
-        <v>0.750420996980754</v>
+        <v>3.28984374059785</v>
       </c>
       <c r="F55" t="e">
         <v>#NUM!</v>
@@ -9285,7 +9300,7 @@
         <v>0.0488946606740575</v>
       </c>
       <c r="I55" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="56">
@@ -9293,10 +9308,10 @@
         <v>135</v>
       </c>
       <c r="B56" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C56" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D56" t="n">
         <v>-0.291950339914576</v>
@@ -9320,10 +9335,10 @@
         <v>135</v>
       </c>
       <c r="B57" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C57" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D57" t="n">
         <v>1.14855383101199</v>
@@ -9341,7 +9356,7 @@
         <v>0.0093889114456646</v>
       </c>
       <c r="I57" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="58">
@@ -9349,10 +9364,10 @@
         <v>135</v>
       </c>
       <c r="B58" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C58" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D58" t="n">
         <v>1.44050417092657</v>
@@ -9370,7 +9385,7 @@
         <v>0.00132588918761176</v>
       </c>
       <c r="I58" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="59">
@@ -9378,16 +9393,16 @@
         <v>143</v>
       </c>
       <c r="B59" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C59" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0703155358563816</v>
+        <v>1.07284664943828</v>
       </c>
       <c r="E59" t="n">
-        <v>0.178433039666138</v>
+        <v>0.191431288754904</v>
       </c>
       <c r="F59" t="e">
         <v>#NUM!</v>
@@ -9405,16 +9420,16 @@
         <v>143</v>
       </c>
       <c r="B60" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C60" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0575918548405837</v>
+        <v>1.05928256641739</v>
       </c>
       <c r="E60" t="n">
-        <v>0.260888612766217</v>
+        <v>0.276354759280072</v>
       </c>
       <c r="F60" t="e">
         <v>#NUM!</v>
@@ -9432,16 +9447,16 @@
         <v>143</v>
       </c>
       <c r="B61" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C61" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.012723681015798</v>
+        <v>0.987356922792283</v>
       </c>
       <c r="E61" t="n">
-        <v>0.26019592390995</v>
+        <v>0.256906246754823</v>
       </c>
       <c r="F61" t="e">
         <v>#NUM!</v>
@@ -9459,10 +9474,10 @@
         <v>150</v>
       </c>
       <c r="B62" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C62" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D62" t="n">
         <v>0.147213885215439</v>
@@ -9486,10 +9501,10 @@
         <v>150</v>
       </c>
       <c r="B63" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C63" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D63" t="n">
         <v>-0.995518690482339</v>
@@ -9507,7 +9522,7 @@
         <v>0.0353190866797725</v>
       </c>
       <c r="I63" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="64">
@@ -9515,10 +9530,10 @@
         <v>150</v>
       </c>
       <c r="B64" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C64" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D64" t="n">
         <v>-1.14273257569778</v>
@@ -9536,7 +9551,7 @@
         <v>0.0159284939847942</v>
       </c>
       <c r="I64" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="65">
@@ -9544,10 +9559,10 @@
         <v>158</v>
       </c>
       <c r="B65" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C65" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D65" t="n">
         <v>-0.00141326725789812</v>
@@ -9571,10 +9586,10 @@
         <v>158</v>
       </c>
       <c r="B66" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C66" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D66" t="n">
         <v>-0.99082776294838</v>
@@ -9592,7 +9607,7 @@
         <v>0.00608136598830745</v>
       </c>
       <c r="I66" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="67">
@@ -9600,10 +9615,10 @@
         <v>158</v>
       </c>
       <c r="B67" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C67" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D67" t="n">
         <v>-0.989414495690482</v>
@@ -9621,7 +9636,7 @@
         <v>0.00611109676992258</v>
       </c>
       <c r="I67" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="68">
@@ -9629,10 +9644,10 @@
         <v>165</v>
       </c>
       <c r="B68" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C68" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D68" t="n">
         <v>0.0314653872359056</v>
@@ -9656,10 +9671,10 @@
         <v>165</v>
       </c>
       <c r="B69" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C69" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D69" t="n">
         <v>0.578332076607702</v>
@@ -9683,10 +9698,10 @@
         <v>165</v>
       </c>
       <c r="B70" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C70" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D70" t="n">
         <v>0.546866689371796</v>
@@ -9710,10 +9725,10 @@
         <v>172</v>
       </c>
       <c r="B71" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C71" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D71" t="n">
         <v>0.132700354286323</v>
@@ -9737,10 +9752,10 @@
         <v>172</v>
       </c>
       <c r="B72" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C72" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D72" t="n">
         <v>-0.435313851717594</v>
@@ -9764,10 +9779,10 @@
         <v>172</v>
       </c>
       <c r="B73" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C73" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D73" t="n">
         <v>-0.568014206003916</v>
@@ -9791,10 +9806,10 @@
         <v>180</v>
       </c>
       <c r="B74" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C74" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D74" t="n">
         <v>-0.103450546528952</v>
@@ -9818,10 +9833,10 @@
         <v>180</v>
       </c>
       <c r="B75" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C75" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D75" t="n">
         <v>-0.407040365063027</v>
@@ -9845,10 +9860,10 @@
         <v>180</v>
       </c>
       <c r="B76" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C76" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D76" t="n">
         <v>-0.303589818534074</v>
@@ -9872,10 +9887,10 @@
         <v>188</v>
       </c>
       <c r="B77" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C77" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D77" t="n">
         <v>-0.0321516794412259</v>
@@ -9899,10 +9914,10 @@
         <v>188</v>
       </c>
       <c r="B78" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C78" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D78" t="n">
         <v>-0.0891035384857786</v>
@@ -9926,10 +9941,10 @@
         <v>188</v>
       </c>
       <c r="B79" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C79" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D79" t="n">
         <v>-0.0569518590445526</v>
@@ -9953,10 +9968,10 @@
         <v>195</v>
       </c>
       <c r="B80" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C80" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D80" t="n">
         <v>-0.0320087156761826</v>
@@ -9980,10 +9995,10 @@
         <v>195</v>
       </c>
       <c r="B81" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C81" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D81" t="n">
         <v>-0.203438799867797</v>
@@ -10007,10 +10022,10 @@
         <v>195</v>
       </c>
       <c r="B82" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C82" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D82" t="n">
         <v>-0.171430084191615</v>
@@ -10034,10 +10049,10 @@
         <v>202</v>
       </c>
       <c r="B83" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C83" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D83" t="n">
         <v>-0.264321020143892</v>
@@ -10061,10 +10076,10 @@
         <v>202</v>
       </c>
       <c r="B84" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C84" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D84" t="n">
         <v>-0.0874930756475414</v>
@@ -10088,10 +10103,10 @@
         <v>202</v>
       </c>
       <c r="B85" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C85" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D85" t="n">
         <v>0.176827944496351</v>
@@ -10115,10 +10130,10 @@
         <v>209</v>
       </c>
       <c r="B86" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C86" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D86" t="n">
         <v>0.015920128260546</v>
@@ -10142,10 +10157,10 @@
         <v>209</v>
       </c>
       <c r="B87" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C87" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D87" t="n">
         <v>0.296188984646525</v>
@@ -10169,10 +10184,10 @@
         <v>209</v>
       </c>
       <c r="B88" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C88" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D88" t="n">
         <v>0.280268856385979</v>
@@ -10196,10 +10211,10 @@
         <v>216</v>
       </c>
       <c r="B89" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C89" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D89" t="n">
         <v>0.232705179194678</v>
@@ -10223,10 +10238,10 @@
         <v>216</v>
       </c>
       <c r="B90" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C90" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D90" t="n">
         <v>0.61559803998837</v>
@@ -10250,10 +10265,10 @@
         <v>216</v>
       </c>
       <c r="B91" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C91" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D91" t="n">
         <v>0.382892860793692</v>
@@ -10277,16 +10292,16 @@
         <v>223</v>
       </c>
       <c r="B92" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C92" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="D92" t="n">
-        <v>-0.0878655423841994</v>
+        <v>0.915884016025776</v>
       </c>
       <c r="E92" t="n">
-        <v>0.280046993423317</v>
+        <v>0.256490565012492</v>
       </c>
       <c r="F92" t="e">
         <v>#NUM!</v>
@@ -10304,16 +10319,16 @@
         <v>223</v>
       </c>
       <c r="B93" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C93" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="D93" t="n">
-        <v>-0.593614895092671</v>
+        <v>0.552327067219574</v>
       </c>
       <c r="E93" t="n">
-        <v>0.409757406954188</v>
+        <v>0.226320106854504</v>
       </c>
       <c r="F93" t="e">
         <v>#NUM!</v>
@@ -10331,16 +10346,16 @@
         <v>223</v>
       </c>
       <c r="B94" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C94" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="D94" t="n">
-        <v>-0.505749352708471</v>
+        <v>0.603053506290287</v>
       </c>
       <c r="E94" t="n">
-        <v>0.426693788242606</v>
+        <v>0.257319185111989</v>
       </c>
       <c r="F94" t="e">
         <v>#NUM!</v>
@@ -10355,19 +10370,19 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B95" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C95" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="D95" t="n">
-        <v>-0.110006861866954</v>
+        <v>0.895827988222969</v>
       </c>
       <c r="E95" t="n">
-        <v>0.402677300838073</v>
+        <v>0.360729596312826</v>
       </c>
       <c r="F95" t="e">
         <v>#NUM!</v>
@@ -10382,19 +10397,19 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B96" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C96" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="D96" t="n">
-        <v>0.310446684279001</v>
+        <v>1.36403427073647</v>
       </c>
       <c r="E96" t="n">
-        <v>0.66263425689734</v>
+        <v>0.903855835371963</v>
       </c>
       <c r="F96" t="e">
         <v>#NUM!</v>
@@ -10409,19 +10424,19 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B97" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C97" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="D97" t="n">
-        <v>0.420453546145954</v>
+        <v>1.52265199197701</v>
       </c>
       <c r="E97" t="n">
-        <v>0.690482979118598</v>
+        <v>1.05136528358116</v>
       </c>
       <c r="F97" t="e">
         <v>#NUM!</v>
@@ -10436,19 +10451,19 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B98" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C98" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="D98" t="n">
-        <v>0.430155606551977</v>
+        <v>1.5374967495031</v>
       </c>
       <c r="E98" t="n">
-        <v>0.830572720661038</v>
+        <v>1.27700285824229</v>
       </c>
       <c r="F98" t="e">
         <v>#NUM!</v>
@@ -10463,19 +10478,19 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B99" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C99" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="D99" t="n">
-        <v>25.0265635936483</v>
+        <v>73943238879.0556</v>
       </c>
       <c r="E99" t="n">
-        <v>724.077457034785</v>
+        <v>53540632372462.2</v>
       </c>
       <c r="F99" t="e">
         <v>#NUM!</v>
@@ -10490,19 +10505,19 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B100" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C100" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="D100" t="n">
-        <v>24.5964079870963</v>
+        <v>48093265174.6763</v>
       </c>
       <c r="E100" t="n">
-        <v>724.078334674408</v>
+        <v>34823291356734.3</v>
       </c>
       <c r="F100" t="e">
         <v>#NUM!</v>
@@ -10534,28 +10549,28 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2">
@@ -10563,10 +10578,10 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C2" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="D2" t="n">
         <v>-0.0194676700367615</v>
@@ -10590,10 +10605,10 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C3" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D3" t="n">
         <v>-0.335577851689702</v>
@@ -10617,10 +10632,10 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C4" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D4" t="n">
         <v>-0.436212646585412</v>
@@ -10644,10 +10659,10 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C5" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="D5" t="n">
         <v>-0.553423235091811</v>
@@ -10671,10 +10686,10 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C6" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D6" t="n">
         <v>-0.420301435855868</v>
@@ -10698,10 +10713,10 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C7" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D7" t="n">
         <v>-0.333895367745439</v>
@@ -10725,10 +10740,10 @@
         <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C8" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="D8" t="n">
         <v>-0.441777860987201</v>
@@ -10752,10 +10767,10 @@
         <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C9" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D9" t="n">
         <v>-0.451206447432814</v>
@@ -10779,10 +10794,10 @@
         <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C10" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D10" t="n">
         <v>-0.584218251212515</v>
@@ -10806,10 +10821,10 @@
         <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C11" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="D11" t="n">
         <v>-0.0554124946801708</v>
@@ -10833,10 +10848,10 @@
         <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C12" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D12" t="n">
         <v>0.253295868886232</v>
@@ -10860,10 +10875,10 @@
         <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C13" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D13" t="n">
         <v>-0.446855099775796</v>
@@ -10884,13 +10899,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B14" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C14" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="D14" t="n">
         <v>-0.279320159895528</v>
@@ -10911,13 +10926,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B15" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C15" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D15" t="n">
         <v>-0.0503527821874445</v>
@@ -10938,13 +10953,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B16" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C16" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D16" t="n">
         <v>-0.297583734485377</v>
@@ -10968,16 +10983,16 @@
         <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C17" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.00433058191975454</v>
+        <v>0.995678781528857</v>
       </c>
       <c r="E17" t="n">
-        <v>0.177192280352921</v>
+        <v>0.176426593798116</v>
       </c>
       <c r="F17" t="e">
         <v>#NUM!</v>
@@ -10995,16 +11010,16 @@
         <v>47</v>
       </c>
       <c r="B18" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C18" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D18" t="n">
-        <v>0.089323476692117</v>
+        <v>1.09343429963586</v>
       </c>
       <c r="E18" t="n">
-        <v>0.173371110487014</v>
+        <v>0.189569918772459</v>
       </c>
       <c r="F18" t="e">
         <v>#NUM!</v>
@@ -11022,16 +11037,16 @@
         <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C19" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.0900185391245722</v>
+        <v>0.913914241944192</v>
       </c>
       <c r="E19" t="n">
-        <v>0.291372033281711</v>
+        <v>0.266289050920393</v>
       </c>
       <c r="F19" t="e">
         <v>#NUM!</v>
@@ -11049,16 +11064,16 @@
         <v>53</v>
       </c>
       <c r="B20" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C20" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.163496541746473</v>
+        <v>0.849169435639701</v>
       </c>
       <c r="E20" t="n">
-        <v>0.2609564380597</v>
+        <v>0.221596231233702</v>
       </c>
       <c r="F20" t="e">
         <v>#NUM!</v>
@@ -11076,16 +11091,16 @@
         <v>53</v>
       </c>
       <c r="B21" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C21" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0223738521131568</v>
+        <v>1.02262602391548</v>
       </c>
       <c r="E21" t="n">
-        <v>0.262169650122544</v>
+        <v>0.268101506896131</v>
       </c>
       <c r="F21" t="e">
         <v>#NUM!</v>
@@ -11103,16 +11118,16 @@
         <v>53</v>
       </c>
       <c r="B22" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C22" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.214396297094569</v>
+        <v>0.80702849859261</v>
       </c>
       <c r="E22" t="n">
-        <v>0.350705781770651</v>
+        <v>0.283029560510116</v>
       </c>
       <c r="F22" t="e">
         <v>#NUM!</v>
@@ -11130,16 +11145,16 @@
         <v>61</v>
       </c>
       <c r="B23" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C23" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.315914937209201</v>
+        <v>0.729121468636808</v>
       </c>
       <c r="E23" t="n">
-        <v>0.324573419955187</v>
+        <v>0.236653448638197</v>
       </c>
       <c r="F23" t="e">
         <v>#NUM!</v>
@@ -11157,16 +11172,16 @@
         <v>61</v>
       </c>
       <c r="B24" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C24" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.0900244798828641</v>
+        <v>0.913908812616708</v>
       </c>
       <c r="E24" t="n">
-        <v>0.324721564142898</v>
+        <v>0.296765899116876</v>
       </c>
       <c r="F24" t="e">
         <v>#NUM!</v>
@@ -11184,16 +11199,16 @@
         <v>61</v>
       </c>
       <c r="B25" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C25" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.40855905088809</v>
+        <v>0.664607225685823</v>
       </c>
       <c r="E25" t="n">
-        <v>0.403860844020847</v>
+        <v>0.26840883510783</v>
       </c>
       <c r="F25" t="e">
         <v>#NUM!</v>
@@ -11211,16 +11226,16 @@
         <v>67</v>
       </c>
       <c r="B26" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C26" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="D26" t="n">
-        <v>0.204083146950588</v>
+        <v>1.22640012064725</v>
       </c>
       <c r="E26" t="n">
-        <v>0.285721355906818</v>
+        <v>0.350408705355618</v>
       </c>
       <c r="F26" t="e">
         <v>#NUM!</v>
@@ -11238,16 +11253,16 @@
         <v>67</v>
       </c>
       <c r="B27" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C27" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.0829555790564383</v>
+        <v>0.920392030994533</v>
       </c>
       <c r="E27" t="n">
-        <v>0.313088319948461</v>
+        <v>0.28816399467803</v>
       </c>
       <c r="F27" t="e">
         <v>#NUM!</v>
@@ -11265,16 +11280,16 @@
         <v>67</v>
       </c>
       <c r="B28" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C28" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D28" t="n">
-        <v>0.397236527262613</v>
+        <v>1.48770777188643</v>
       </c>
       <c r="E28" t="n">
-        <v>0.395787630087984</v>
+        <v>0.588816333298403</v>
       </c>
       <c r="F28" t="e">
         <v>#NUM!</v>
@@ -11292,16 +11307,16 @@
         <v>74</v>
       </c>
       <c r="B29" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0673737656709704</v>
+        <v>1.06969521881648</v>
       </c>
       <c r="E29" t="n">
-        <v>0.318612891558404</v>
+        <v>0.340818686753318</v>
       </c>
       <c r="F29" t="e">
         <v>#NUM!</v>
@@ -11319,16 +11334,16 @@
         <v>74</v>
       </c>
       <c r="B30" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C30" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0172319889635626</v>
+        <v>1.01738131618729</v>
       </c>
       <c r="E30" t="n">
-        <v>0.325459733155571</v>
+        <v>0.331116651683778</v>
       </c>
       <c r="F30" t="e">
         <v>#NUM!</v>
@@ -11346,16 +11361,16 @@
         <v>74</v>
       </c>
       <c r="B31" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C31" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D31" t="n">
-        <v>0.783387038535404</v>
+        <v>2.1888735232223</v>
       </c>
       <c r="E31" t="n">
-        <v>0.398296542267906</v>
+        <v>0.871820755761212</v>
       </c>
       <c r="F31" t="e">
         <v>#NUM!</v>
@@ -11367,7 +11382,7 @@
         <v>0.0492012346506253</v>
       </c>
       <c r="I31" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="32">
@@ -11375,10 +11390,10 @@
         <v>81</v>
       </c>
       <c r="B32" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C32" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="D32" t="n">
         <v>0.163487161806084</v>
@@ -11402,10 +11417,10 @@
         <v>81</v>
       </c>
       <c r="B33" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C33" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D33" t="n">
         <v>0.158378187999644</v>
@@ -11429,10 +11444,10 @@
         <v>81</v>
       </c>
       <c r="B34" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C34" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D34" t="n">
         <v>0.391302324535268</v>
@@ -11456,16 +11471,16 @@
         <v>88</v>
       </c>
       <c r="B35" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C35" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.242880415974013</v>
+        <v>0.784365305724538</v>
       </c>
       <c r="E35" t="n">
-        <v>0.367431334025388</v>
+        <v>0.288200390645598</v>
       </c>
       <c r="F35" t="e">
         <v>#NUM!</v>
@@ -11483,16 +11498,16 @@
         <v>88</v>
       </c>
       <c r="B36" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C36" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D36" t="n">
-        <v>0.465114434642496</v>
+        <v>1.59219638088599</v>
       </c>
       <c r="E36" t="n">
-        <v>0.379874734368123</v>
+        <v>0.604835177250953</v>
       </c>
       <c r="F36" t="e">
         <v>#NUM!</v>
@@ -11510,16 +11525,16 @@
         <v>88</v>
       </c>
       <c r="B37" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C37" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D37" t="n">
-        <v>0.618437354378818</v>
+        <v>1.85602546452217</v>
       </c>
       <c r="E37" t="n">
-        <v>0.478260023525169</v>
+        <v>0.887662782325686</v>
       </c>
       <c r="F37" t="e">
         <v>#NUM!</v>
@@ -11537,16 +11552,16 @@
         <v>96</v>
       </c>
       <c r="B38" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C38" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="D38" t="n">
-        <v>0.389499049219093</v>
+        <v>1.47624108449503</v>
       </c>
       <c r="E38" t="n">
-        <v>0.512671484615733</v>
+        <v>0.756826708438806</v>
       </c>
       <c r="F38" t="e">
         <v>#NUM!</v>
@@ -11564,16 +11579,16 @@
         <v>96</v>
       </c>
       <c r="B39" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C39" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0726375385176826</v>
+        <v>1.07534069668502</v>
       </c>
       <c r="E39" t="n">
-        <v>0.641117126859905</v>
+        <v>0.689419337854229</v>
       </c>
       <c r="F39" t="e">
         <v>#NUM!</v>
@@ -11591,16 +11606,16 @@
         <v>96</v>
       </c>
       <c r="B40" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C40" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.225303506177458</v>
+        <v>0.798273900928523</v>
       </c>
       <c r="E40" t="n">
-        <v>0.975225460174753</v>
+        <v>0.778497032378514</v>
       </c>
       <c r="F40" t="e">
         <v>#NUM!</v>
@@ -11618,16 +11633,16 @@
         <v>100</v>
       </c>
       <c r="B41" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C41" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0112213201330346</v>
+        <v>1.01128451530234</v>
       </c>
       <c r="E41" t="n">
-        <v>0.738324099697296</v>
+        <v>0.746655729298414</v>
       </c>
       <c r="F41" t="e">
         <v>#NUM!</v>
@@ -11645,16 +11660,16 @@
         <v>100</v>
       </c>
       <c r="B42" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C42" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.291116490818181</v>
+        <v>0.747428604376894</v>
       </c>
       <c r="E42" t="n">
-        <v>0.896080374409056</v>
+        <v>0.669756103654085</v>
       </c>
       <c r="F42" t="e">
         <v>#NUM!</v>
@@ -11672,16 +11687,16 @@
         <v>100</v>
       </c>
       <c r="B43" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C43" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.412630537690419</v>
+        <v>0.661906787267831</v>
       </c>
       <c r="E43" t="n">
-        <v>1.56513843857395</v>
+        <v>1.03597575550587</v>
       </c>
       <c r="F43" t="e">
         <v>#NUM!</v>
@@ -11699,10 +11714,10 @@
         <v>102</v>
       </c>
       <c r="B44" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C44" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="D44" t="n">
         <v>0.11505704047742</v>
@@ -11726,10 +11741,10 @@
         <v>102</v>
       </c>
       <c r="B45" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C45" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D45" t="n">
         <v>-0.119981649416975</v>
@@ -11753,10 +11768,10 @@
         <v>102</v>
       </c>
       <c r="B46" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C46" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D46" t="n">
         <v>-0.818728718336216</v>
@@ -11780,10 +11795,10 @@
         <v>111</v>
       </c>
       <c r="B47" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C47" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="D47" t="n">
         <v>-0.115332921986647</v>
@@ -11807,10 +11822,10 @@
         <v>111</v>
       </c>
       <c r="B48" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C48" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D48" t="n">
         <v>-0.0215972930780057</v>
@@ -11834,10 +11849,10 @@
         <v>111</v>
       </c>
       <c r="B49" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C49" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D49" t="n">
         <v>-0.427299316221523</v>
@@ -11861,10 +11876,10 @@
         <v>119</v>
       </c>
       <c r="B50" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C50" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="D50" t="n">
         <v>-0.198958467424336</v>
@@ -11888,10 +11903,10 @@
         <v>119</v>
       </c>
       <c r="B51" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C51" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D51" t="n">
         <v>-0.125119544274616</v>
@@ -11915,10 +11930,10 @@
         <v>119</v>
       </c>
       <c r="B52" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C52" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D52" t="n">
         <v>-0.202087357161341</v>
@@ -11942,16 +11957,16 @@
         <v>126</v>
       </c>
       <c r="B53" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C53" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.275277843177515</v>
+        <v>0.759361110608265</v>
       </c>
       <c r="E53" t="n">
-        <v>0.36926626616547</v>
+        <v>0.280406441985578</v>
       </c>
       <c r="F53" t="e">
         <v>#NUM!</v>
@@ -11969,16 +11984,16 @@
         <v>126</v>
       </c>
       <c r="B54" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C54" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.513253450144242</v>
+        <v>0.598545071045151</v>
       </c>
       <c r="E54" t="n">
-        <v>0.393508610306803</v>
+        <v>0.235532639112964</v>
       </c>
       <c r="F54" t="e">
         <v>#NUM!</v>
@@ -11996,16 +12011,16 @@
         <v>126</v>
       </c>
       <c r="B55" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C55" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D55" t="n">
-        <v>0.964707518876563</v>
+        <v>2.62402006789008</v>
       </c>
       <c r="E55" t="n">
-        <v>0.757799033428321</v>
+        <v>1.98847987114362</v>
       </c>
       <c r="F55" t="e">
         <v>#NUM!</v>
@@ -12023,10 +12038,10 @@
         <v>135</v>
       </c>
       <c r="B56" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C56" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="D56" t="n">
         <v>0.327631466636727</v>
@@ -12050,10 +12065,10 @@
         <v>135</v>
       </c>
       <c r="B57" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C57" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D57" t="n">
         <v>0.0356811267221508</v>
@@ -12077,10 +12092,10 @@
         <v>135</v>
       </c>
       <c r="B58" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C58" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D58" t="n">
         <v>1.47618529764872</v>
@@ -12098,7 +12113,7 @@
         <v>0.000387139627138382</v>
       </c>
       <c r="I58" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="59">
@@ -12106,16 +12121,16 @@
         <v>143</v>
       </c>
       <c r="B59" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C59" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="D59" t="n">
-        <v>0.131905498947866</v>
+        <v>1.14100048842561</v>
       </c>
       <c r="E59" t="n">
-        <v>0.150469545882888</v>
+        <v>0.171685825345555</v>
       </c>
       <c r="F59" t="e">
         <v>#NUM!</v>
@@ -12133,16 +12148,16 @@
         <v>143</v>
       </c>
       <c r="B60" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C60" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D60" t="n">
-        <v>0.202221034804248</v>
+        <v>1.22411855101486</v>
       </c>
       <c r="E60" t="n">
-        <v>0.148680106339712</v>
+        <v>0.182002076337304</v>
       </c>
       <c r="F60" t="e">
         <v>#NUM!</v>
@@ -12160,16 +12175,16 @@
         <v>143</v>
       </c>
       <c r="B61" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C61" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D61" t="n">
-        <v>0.18949735378845</v>
+        <v>1.20864192566298</v>
       </c>
       <c r="E61" t="n">
-        <v>0.241965299367819</v>
+        <v>0.29244940537154</v>
       </c>
       <c r="F61" t="e">
         <v>#NUM!</v>
@@ -12187,10 +12202,10 @@
         <v>150</v>
       </c>
       <c r="B62" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C62" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="D62" t="n">
         <v>0.118555216894946</v>
@@ -12214,10 +12229,10 @@
         <v>150</v>
       </c>
       <c r="B63" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C63" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D63" t="n">
         <v>0.265769102110385</v>
@@ -12241,10 +12256,10 @@
         <v>150</v>
       </c>
       <c r="B64" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C64" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D64" t="n">
         <v>-0.876963473587393</v>
@@ -12262,7 +12277,7 @@
         <v>0.0456484734239698</v>
       </c>
       <c r="I64" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="65">
@@ -12270,10 +12285,10 @@
         <v>158</v>
       </c>
       <c r="B65" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C65" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="D65" t="n">
         <v>0.151055065630796</v>
@@ -12297,10 +12312,10 @@
         <v>158</v>
       </c>
       <c r="B66" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C66" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D66" t="n">
         <v>0.149641798372898</v>
@@ -12324,10 +12339,10 @@
         <v>158</v>
       </c>
       <c r="B67" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C67" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D67" t="n">
         <v>-0.839772697317584</v>
@@ -12345,7 +12360,7 @@
         <v>0.0293578312606177</v>
       </c>
       <c r="I67" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="68">
@@ -12353,10 +12368,10 @@
         <v>165</v>
       </c>
       <c r="B68" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C68" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="D68" t="n">
         <v>-0.198724253280984</v>
@@ -12380,10 +12395,10 @@
         <v>165</v>
       </c>
       <c r="B69" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C69" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D69" t="n">
         <v>-0.167258866045079</v>
@@ -12407,10 +12422,10 @@
         <v>165</v>
       </c>
       <c r="B70" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C70" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D70" t="n">
         <v>0.379607823326718</v>
@@ -12434,10 +12449,10 @@
         <v>172</v>
       </c>
       <c r="B71" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C71" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="D71" t="n">
         <v>0.414081870775911</v>
@@ -12461,10 +12476,10 @@
         <v>172</v>
       </c>
       <c r="B72" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C72" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D72" t="n">
         <v>0.546782225062234</v>
@@ -12488,10 +12503,10 @@
         <v>172</v>
       </c>
       <c r="B73" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C73" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D73" t="n">
         <v>-0.021231980941683</v>
@@ -12515,10 +12530,10 @@
         <v>180</v>
       </c>
       <c r="B74" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C74" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="D74" t="n">
         <v>0.427720567210398</v>
@@ -12542,10 +12557,10 @@
         <v>180</v>
       </c>
       <c r="B75" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C75" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D75" t="n">
         <v>0.324270020681446</v>
@@ -12569,10 +12584,10 @@
         <v>180</v>
       </c>
       <c r="B76" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C76" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D76" t="n">
         <v>0.0206802021473714</v>
@@ -12596,10 +12611,10 @@
         <v>188</v>
       </c>
       <c r="B77" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C77" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="D77" t="n">
         <v>0.331077096071466</v>
@@ -12623,10 +12638,10 @@
         <v>188</v>
       </c>
       <c r="B78" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C78" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D78" t="n">
         <v>0.29892541663024</v>
@@ -12650,10 +12665,10 @@
         <v>188</v>
       </c>
       <c r="B79" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C79" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D79" t="n">
         <v>0.241973557585687</v>
@@ -12677,10 +12692,10 @@
         <v>195</v>
       </c>
       <c r="B80" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C80" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="D80" t="n">
         <v>0.218495680237304</v>
@@ -12704,10 +12719,10 @@
         <v>195</v>
       </c>
       <c r="B81" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C81" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D81" t="n">
         <v>0.186486964561121</v>
@@ -12731,10 +12746,10 @@
         <v>195</v>
       </c>
       <c r="B82" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C82" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D82" t="n">
         <v>0.0150568803695063</v>
@@ -12758,10 +12773,10 @@
         <v>202</v>
       </c>
       <c r="B83" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C83" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="D83" t="n">
         <v>0.19446317449758</v>
@@ -12785,10 +12800,10 @@
         <v>202</v>
       </c>
       <c r="B84" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C84" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D84" t="n">
         <v>-0.0698578456463126</v>
@@ -12812,10 +12827,10 @@
         <v>202</v>
       </c>
       <c r="B85" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C85" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D85" t="n">
         <v>0.106970098850038</v>
@@ -12839,10 +12854,10 @@
         <v>209</v>
       </c>
       <c r="B86" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C86" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="D86" t="n">
         <v>0.0382805160085657</v>
@@ -12866,10 +12881,10 @@
         <v>209</v>
       </c>
       <c r="B87" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C87" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D87" t="n">
         <v>0.0542006442691117</v>
@@ -12893,10 +12908,10 @@
         <v>209</v>
       </c>
       <c r="B88" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C88" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D88" t="n">
         <v>0.33446950065509</v>
@@ -12920,10 +12935,10 @@
         <v>216</v>
       </c>
       <c r="B89" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C89" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="D89" t="n">
         <v>0.00121766528792335</v>
@@ -12947,10 +12962,10 @@
         <v>216</v>
       </c>
       <c r="B90" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C90" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D90" t="n">
         <v>0.233922844482601</v>
@@ -12974,10 +12989,10 @@
         <v>216</v>
       </c>
       <c r="B91" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C91" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D91" t="n">
         <v>0.616815705276293</v>
@@ -13001,16 +13016,16 @@
         <v>223</v>
       </c>
       <c r="B92" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C92" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0957783447725411</v>
+        <v>1.10051510203199</v>
       </c>
       <c r="E92" t="n">
-        <v>0.272522035036865</v>
+        <v>0.299914615194561</v>
       </c>
       <c r="F92" t="e">
         <v>#NUM!</v>
@@ -13028,16 +13043,16 @@
         <v>223</v>
       </c>
       <c r="B93" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C93" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D93" t="n">
-        <v>0.00791280238834162</v>
+        <v>1.00794419134608</v>
       </c>
       <c r="E93" t="n">
-        <v>0.297699808002051</v>
+        <v>0.30006479224051</v>
       </c>
       <c r="F93" t="e">
         <v>#NUM!</v>
@@ -13055,16 +13070,16 @@
         <v>223</v>
       </c>
       <c r="B94" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C94" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D94" t="n">
-        <v>-0.49783655032013</v>
+        <v>0.60784427873618</v>
       </c>
       <c r="E94" t="n">
-        <v>0.422932653848059</v>
+        <v>0.257077193932252</v>
       </c>
       <c r="F94" t="e">
         <v>#NUM!</v>
@@ -13079,19 +13094,19 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B95" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C95" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="D95" t="n">
-        <v>0.107655037889764</v>
+        <v>1.1136635074029</v>
       </c>
       <c r="E95" t="n">
-        <v>0.334235305889954</v>
+        <v>0.372225663055287</v>
       </c>
       <c r="F95" t="e">
         <v>#NUM!</v>
@@ -13106,19 +13121,19 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B96" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C96" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D96" t="n">
-        <v>-0.00235182397718996</v>
+        <v>0.997650939394074</v>
       </c>
       <c r="E96" t="n">
-        <v>0.38822884058589</v>
+        <v>0.387316867510386</v>
       </c>
       <c r="F96" t="e">
         <v>#NUM!</v>
@@ -13133,19 +13148,19 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B97" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C97" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D97" t="n">
-        <v>0.418101722168765</v>
+        <v>1.51907519016613</v>
       </c>
       <c r="E97" t="n">
-        <v>0.657638745891747</v>
+        <v>0.999002702976119</v>
       </c>
       <c r="F97" t="e">
         <v>#NUM!</v>
@@ -13160,19 +13175,19 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B98" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C98" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="D98" t="n">
-        <v>0.347359168034395</v>
+        <v>1.4153249735805</v>
       </c>
       <c r="E98" t="n">
-        <v>0.559033500165488</v>
+        <v>0.791214073852333</v>
       </c>
       <c r="F98" t="e">
         <v>#NUM!</v>
@@ -13187,19 +13202,19 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B99" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C99" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D99" t="n">
-        <v>0.777514774586372</v>
+        <v>2.17605754637058</v>
       </c>
       <c r="E99" t="n">
-        <v>0.798635007114895</v>
+        <v>1.73787573402809</v>
       </c>
       <c r="F99" t="e">
         <v>#NUM!</v>
@@ -13214,19 +13229,19 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B100" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C100" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D100" t="n">
-        <v>25.3739227616827</v>
+        <v>104653712612.956</v>
       </c>
       <c r="E100" t="n">
-        <v>724.077896447476</v>
+        <v>75777440084207.9</v>
       </c>
       <c r="F100" t="e">
         <v>#NUM!</v>
@@ -13258,28 +13273,28 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2">
@@ -13287,10 +13302,10 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C2" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D2" t="n">
         <v>0.373820974014979</v>
@@ -13314,10 +13329,10 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D3" t="n">
         <v>0.434404861067267</v>
@@ -13341,10 +13356,10 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C4" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D4" t="n">
         <v>0.0605838870522883</v>
@@ -13368,10 +13383,10 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C5" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D5" t="n">
         <v>0.057710792362039</v>
@@ -13395,10 +13410,10 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C6" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D6" t="n">
         <v>0.0176598845186165</v>
@@ -13422,10 +13437,10 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D7" t="n">
         <v>-0.0400509078434225</v>
@@ -13449,10 +13464,10 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C8" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D8" t="n">
         <v>-0.0694668628159168</v>
@@ -13476,10 +13491,10 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C9" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D9" t="n">
         <v>-0.0981026147052905</v>
@@ -13503,10 +13518,10 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C10" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D10" t="n">
         <v>-0.0286357518893737</v>
@@ -13530,10 +13545,10 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C11" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D11" t="n">
         <v>0.0636549364200262</v>
@@ -13557,10 +13572,10 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C12" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D12" t="n">
         <v>0.121425252641081</v>
@@ -13584,10 +13599,10 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C13" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D13" t="n">
         <v>0.057770316221055</v>
@@ -13611,10 +13626,10 @@
         <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C14" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D14" t="n">
         <v>-0.117284273519849</v>
@@ -13638,10 +13653,10 @@
         <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C15" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D15" t="n">
         <v>0.0413290098970144</v>
@@ -13665,10 +13680,10 @@
         <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C16" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D16" t="n">
         <v>0.158613283416864</v>
@@ -13692,10 +13707,10 @@
         <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C17" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D17" t="n">
         <v>-0.126712859965462</v>
@@ -13719,10 +13734,10 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C18" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D18" t="n">
         <v>-0.101111380328299</v>
@@ -13746,10 +13761,10 @@
         <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C19" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D19" t="n">
         <v>0.0256014796371624</v>
@@ -13773,10 +13788,10 @@
         <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C20" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D20" t="n">
         <v>-0.0358833162293284</v>
@@ -13800,10 +13815,10 @@
         <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C21" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D21" t="n">
         <v>0.169166205801637</v>
@@ -13827,10 +13842,10 @@
         <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C22" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D22" t="n">
         <v>0.205049522030966</v>
@@ -13854,10 +13869,10 @@
         <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C23" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D23" t="n">
         <v>0.272825047337075</v>
@@ -13881,10 +13896,10 @@
         <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C24" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D24" t="n">
         <v>-0.222276399293988</v>
@@ -13908,10 +13923,10 @@
         <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C25" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D25" t="n">
         <v>-0.495101446631063</v>
@@ -13932,13 +13947,13 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B26" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C26" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D26" t="n">
         <v>0.237735275103907</v>
@@ -13959,13 +13974,13 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B27" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C27" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D27" t="n">
         <v>-0.0691300122510552</v>
@@ -13986,13 +14001,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>264</v>
+      </c>
+      <c r="B28" t="s">
         <v>263</v>
       </c>
-      <c r="B28" t="s">
-        <v>262</v>
-      </c>
       <c r="C28" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D28" t="n">
         <v>-0.306865287354962</v>
@@ -14013,13 +14028,13 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B29" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C29" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D29" t="n">
         <v>0.466702652811991</v>
@@ -14037,18 +14052,18 @@
         <v>0.037945970859906</v>
       </c>
       <c r="I29" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B30" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C30" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D30" t="n">
         <v>-0.0873935868409042</v>
@@ -14069,13 +14084,13 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>264</v>
+      </c>
+      <c r="B31" t="s">
         <v>263</v>
       </c>
-      <c r="B31" t="s">
-        <v>262</v>
-      </c>
       <c r="C31" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D31" t="n">
         <v>-0.554096239652895</v>
@@ -14099,16 +14114,16 @@
         <v>47</v>
       </c>
       <c r="B32" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="C32" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0647963741513176</v>
+        <v>1.06694174534474</v>
       </c>
       <c r="E32" t="n">
-        <v>0.160901473895412</v>
+        <v>0.171672499386512</v>
       </c>
       <c r="F32" t="e">
         <v>#NUM!</v>
@@ -14126,16 +14141,16 @@
         <v>47</v>
       </c>
       <c r="B33" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="C33" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0302265024606979</v>
+        <v>1.03068796087598</v>
       </c>
       <c r="E33" t="n">
-        <v>0.247004685046533</v>
+        <v>0.254584755157425</v>
       </c>
       <c r="F33" t="e">
         <v>#NUM!</v>
@@ -14153,16 +14168,16 @@
         <v>47</v>
       </c>
       <c r="B34" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C34" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.0345698716906197</v>
+        <v>0.966020839819102</v>
       </c>
       <c r="E34" t="n">
-        <v>0.246199397643385</v>
+        <v>0.23783374887442</v>
       </c>
       <c r="F34" t="e">
         <v>#NUM!</v>
@@ -14180,16 +14195,16 @@
         <v>47</v>
       </c>
       <c r="B35" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="C35" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D35" t="n">
-        <v>0.158450432763189</v>
+        <v>1.17169384515951</v>
       </c>
       <c r="E35" t="n">
-        <v>0.16254004046715</v>
+        <v>0.190447165007337</v>
       </c>
       <c r="F35" t="e">
         <v>#NUM!</v>
@@ -14207,16 +14222,16 @@
         <v>47</v>
       </c>
       <c r="B36" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="C36" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.0554614547441197</v>
+        <v>0.946048488648724</v>
       </c>
       <c r="E36" t="n">
-        <v>0.214662254347216</v>
+        <v>0.203080901295111</v>
       </c>
       <c r="F36" t="e">
         <v>#NUM!</v>
@@ -14234,16 +14249,16 @@
         <v>47</v>
       </c>
       <c r="B37" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C37" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.213911887507309</v>
+        <v>0.807419525635498</v>
       </c>
       <c r="E37" t="n">
-        <v>0.212484366513714</v>
+        <v>0.171564026415463</v>
       </c>
       <c r="F37" t="e">
         <v>#NUM!</v>
@@ -14261,16 +14276,16 @@
         <v>53</v>
       </c>
       <c r="B38" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="C38" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D38" t="n">
-        <v>0.408563908712915</v>
+        <v>1.50465541027589</v>
       </c>
       <c r="E38" t="n">
-        <v>0.150967926489882</v>
+        <v>0.227154707371134</v>
       </c>
       <c r="F38" t="e">
         <v>#NUM!</v>
@@ -14282,7 +14297,7 @@
         <v>0.0186604159591426</v>
       </c>
       <c r="I38" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="39">
@@ -14290,16 +14305,16 @@
         <v>53</v>
       </c>
       <c r="B39" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="C39" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0516540695204884</v>
+        <v>1.05301141075801</v>
       </c>
       <c r="E39" t="n">
-        <v>0.241689839772629</v>
+        <v>0.254502159144854</v>
       </c>
       <c r="F39" t="e">
         <v>#NUM!</v>
@@ -14317,16 +14332,16 @@
         <v>53</v>
       </c>
       <c r="B40" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C40" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.356909839192426</v>
+        <v>0.699835592632425</v>
       </c>
       <c r="E40" t="n">
-        <v>0.242203638964113</v>
+        <v>0.16950272721218</v>
       </c>
       <c r="F40" t="e">
         <v>#NUM!</v>
@@ -14344,16 +14359,16 @@
         <v>53</v>
       </c>
       <c r="B41" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="C41" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D41" t="n">
-        <v>0.594434302572545</v>
+        <v>1.81200560806126</v>
       </c>
       <c r="E41" t="n">
-        <v>0.153705542666908</v>
+        <v>0.278515305302537</v>
       </c>
       <c r="F41" t="e">
         <v>#NUM!</v>
@@ -14365,7 +14380,7 @@
         <v>0.000323867438232872</v>
       </c>
       <c r="I41" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="42">
@@ -14373,16 +14388,16 @@
         <v>53</v>
       </c>
       <c r="B42" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="C42" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D42" t="n">
-        <v>0.000754314172392717</v>
+        <v>1.00075459873887</v>
       </c>
       <c r="E42" t="n">
-        <v>0.204293679281099</v>
+        <v>0.204447839033845</v>
       </c>
       <c r="F42" t="e">
         <v>#NUM!</v>
@@ -14400,16 +14415,16 @@
         <v>53</v>
       </c>
       <c r="B43" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C43" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.593679988400152</v>
+        <v>0.552291115594075</v>
       </c>
       <c r="E43" t="n">
-        <v>0.206008655577025</v>
+        <v>0.113776750210671</v>
       </c>
       <c r="F43" t="e">
         <v>#NUM!</v>
@@ -14421,7 +14436,7 @@
         <v>0.0110317822667316</v>
       </c>
       <c r="I43" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="44">
@@ -14429,16 +14444,16 @@
         <v>61</v>
       </c>
       <c r="B44" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="C44" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D44" t="n">
-        <v>0.430771662519096</v>
+        <v>1.53844422536917</v>
       </c>
       <c r="E44" t="n">
-        <v>0.157006212717564</v>
+        <v>0.24154530130242</v>
       </c>
       <c r="F44" t="e">
         <v>#NUM!</v>
@@ -14450,7 +14465,7 @@
         <v>0.0167291405769173</v>
       </c>
       <c r="I44" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="45">
@@ -14458,16 +14473,16 @@
         <v>61</v>
       </c>
       <c r="B45" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="C45" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D45" t="n">
-        <v>0.2198056849005</v>
+        <v>1.24583462258687</v>
       </c>
       <c r="E45" t="n">
-        <v>0.250066303818804</v>
+        <v>0.311541259239794</v>
       </c>
       <c r="F45" t="e">
         <v>#NUM!</v>
@@ -14485,16 +14500,16 @@
         <v>61</v>
       </c>
       <c r="B46" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C46" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.210965977618596</v>
+        <v>0.809801617792102</v>
       </c>
       <c r="E46" t="n">
-        <v>0.250414164567693</v>
+        <v>0.202785795584975</v>
       </c>
       <c r="F46" t="e">
         <v>#NUM!</v>
@@ -14512,16 +14527,16 @@
         <v>61</v>
       </c>
       <c r="B47" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="C47" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D47" t="n">
-        <v>0.656662119845433</v>
+        <v>1.92834499567387</v>
       </c>
       <c r="E47" t="n">
-        <v>0.157150966907546</v>
+        <v>0.303041280601477</v>
       </c>
       <c r="F47" t="e">
         <v>#NUM!</v>
@@ -14533,7 +14548,7 @@
         <v>0.0000869883708962682</v>
       </c>
       <c r="I47" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="48">
@@ -14541,16 +14556,16 @@
         <v>61</v>
       </c>
       <c r="B48" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="C48" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D48" t="n">
-        <v>0.12716157122161</v>
+        <v>1.13560048331706</v>
       </c>
       <c r="E48" t="n">
-        <v>0.207674184331025</v>
+        <v>0.235834904098788</v>
       </c>
       <c r="F48" t="e">
         <v>#NUM!</v>
@@ -14568,16 +14583,16 @@
         <v>61</v>
       </c>
       <c r="B49" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C49" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.529500548623822</v>
+        <v>0.588899022666958</v>
       </c>
       <c r="E49" t="n">
-        <v>0.208775471946239</v>
+        <v>0.122947671385973</v>
       </c>
       <c r="F49" t="e">
         <v>#NUM!</v>
@@ -14589,7 +14604,7 @@
         <v>0.0301324592054325</v>
       </c>
       <c r="I49" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="50">
@@ -14597,16 +14612,16 @@
         <v>67</v>
       </c>
       <c r="B50" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="C50" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D50" t="n">
-        <v>0.691142696228887</v>
+        <v>1.99599504661202</v>
       </c>
       <c r="E50" t="n">
-        <v>0.209907146534228</v>
+        <v>0.418973624730782</v>
       </c>
       <c r="F50" t="e">
         <v>#NUM!</v>
@@ -14618,7 +14633,7 @@
         <v>0.00285314047258467</v>
       </c>
       <c r="I50" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="51">
@@ -14626,16 +14641,16 @@
         <v>67</v>
       </c>
       <c r="B51" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="C51" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.487033113916582</v>
+        <v>0.614446685871447</v>
       </c>
       <c r="E51" t="n">
-        <v>0.288033144138625</v>
+        <v>0.176981010837111</v>
       </c>
       <c r="F51" t="e">
         <v>#NUM!</v>
@@ -14653,16 +14668,16 @@
         <v>67</v>
       </c>
       <c r="B52" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C52" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D52" t="n">
-        <v>-1.17817581014547</v>
+        <v>0.30783978493053</v>
       </c>
       <c r="E52" t="n">
-        <v>0.305435489412949</v>
+        <v>0.0940251953710336</v>
       </c>
       <c r="F52" t="e">
         <v>#NUM!</v>
@@ -14674,7 +14689,7 @@
         <v>0.000337298801497576</v>
       </c>
       <c r="I52" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="53">
@@ -14682,16 +14697,16 @@
         <v>67</v>
       </c>
       <c r="B53" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="C53" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D53" t="n">
-        <v>0.404103970221861</v>
+        <v>1.49795968206257</v>
       </c>
       <c r="E53" t="n">
-        <v>0.216868111452696</v>
+        <v>0.324859687281191</v>
       </c>
       <c r="F53" t="e">
         <v>#NUM!</v>
@@ -14709,16 +14724,16 @@
         <v>67</v>
       </c>
       <c r="B54" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="C54" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.293879733604556</v>
+        <v>0.745366128550582</v>
       </c>
       <c r="E54" t="n">
-        <v>0.266097244891462</v>
+        <v>0.198339873242725</v>
       </c>
       <c r="F54" t="e">
         <v>#NUM!</v>
@@ -14736,16 +14751,16 @@
         <v>67</v>
       </c>
       <c r="B55" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C55" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.697983703826417</v>
+        <v>0.497587576939501</v>
       </c>
       <c r="E55" t="n">
-        <v>0.278255543262</v>
+        <v>0.138456501541723</v>
       </c>
       <c r="F55" t="e">
         <v>#NUM!</v>
@@ -14757,7 +14772,7 @@
         <v>0.0324948215113813</v>
       </c>
       <c r="I55" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="56">
@@ -14765,16 +14780,16 @@
         <v>74</v>
       </c>
       <c r="B56" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="C56" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.240507905019161</v>
+        <v>0.786228430272745</v>
       </c>
       <c r="E56" t="n">
-        <v>0.140033940630745</v>
+        <v>0.110098665327018</v>
       </c>
       <c r="F56" t="e">
         <v>#NUM!</v>
@@ -14792,16 +14807,16 @@
         <v>74</v>
       </c>
       <c r="B57" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="C57" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.301358516541066</v>
+        <v>0.739812490180438</v>
       </c>
       <c r="E57" t="n">
-        <v>0.239420149074628</v>
+        <v>0.177126016686272</v>
       </c>
       <c r="F57" t="e">
         <v>#NUM!</v>
@@ -14819,16 +14834,16 @@
         <v>74</v>
       </c>
       <c r="B58" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C58" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.0608506115219057</v>
+        <v>0.940963798426616</v>
       </c>
       <c r="E58" t="n">
-        <v>0.242147599768225</v>
+        <v>0.227852125257796</v>
       </c>
       <c r="F58" t="e">
         <v>#NUM!</v>
@@ -14846,16 +14861,16 @@
         <v>74</v>
       </c>
       <c r="B59" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="C59" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.290649681726568</v>
+        <v>0.747777592293777</v>
       </c>
       <c r="E59" t="n">
-        <v>0.14811306946434</v>
+        <v>0.110755634471285</v>
       </c>
       <c r="F59" t="e">
         <v>#NUM!</v>
@@ -14873,16 +14888,16 @@
         <v>74</v>
       </c>
       <c r="B60" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="C60" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D60" t="n">
-        <v>0.414654756323367</v>
+        <v>1.51384800401071</v>
       </c>
       <c r="E60" t="n">
-        <v>0.201398447057721</v>
+        <v>0.304886637089187</v>
       </c>
       <c r="F60" t="e">
         <v>#NUM!</v>
@@ -14900,16 +14915,16 @@
         <v>74</v>
       </c>
       <c r="B61" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C61" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D61" t="n">
-        <v>0.705304438049936</v>
+        <v>2.0244629146576</v>
       </c>
       <c r="E61" t="n">
-        <v>0.20804270385758</v>
+        <v>0.421174738624765</v>
       </c>
       <c r="F61" t="e">
         <v>#NUM!</v>
@@ -14921,7 +14936,7 @@
         <v>0.00201821259213886</v>
       </c>
       <c r="I61" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="62">
@@ -14929,10 +14944,10 @@
         <v>81</v>
       </c>
       <c r="B62" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C62" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D62" t="n">
         <v>0.439371747353852</v>
@@ -14956,10 +14971,10 @@
         <v>81</v>
       </c>
       <c r="B63" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C63" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D63" t="n">
         <v>0.0431681519015319</v>
@@ -14983,10 +14998,10 @@
         <v>81</v>
       </c>
       <c r="B64" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C64" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D64" t="n">
         <v>-0.39620359545232</v>
@@ -15010,10 +15025,10 @@
         <v>81</v>
       </c>
       <c r="B65" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C65" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D65" t="n">
         <v>0.434262773547412</v>
@@ -15037,10 +15052,10 @@
         <v>81</v>
       </c>
       <c r="B66" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C66" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D66" t="n">
         <v>0.270983314630716</v>
@@ -15064,10 +15079,10 @@
         <v>81</v>
       </c>
       <c r="B67" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C67" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D67" t="n">
         <v>-0.163279458916696</v>
@@ -15091,16 +15106,16 @@
         <v>88</v>
       </c>
       <c r="B68" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="C68" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D68" t="n">
-        <v>0.213995722995137</v>
+        <v>1.23861735720966</v>
       </c>
       <c r="E68" t="n">
-        <v>0.195482350095031</v>
+        <v>0.242127831855841</v>
       </c>
       <c r="F68" t="e">
         <v>#NUM!</v>
@@ -15118,16 +15133,16 @@
         <v>88</v>
       </c>
       <c r="B69" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="C69" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.244296770647193</v>
+        <v>0.783255152629144</v>
       </c>
       <c r="E69" t="n">
-        <v>0.301615078671523</v>
+        <v>0.236241564480115</v>
       </c>
       <c r="F69" t="e">
         <v>#NUM!</v>
@@ -15145,16 +15160,16 @@
         <v>88</v>
       </c>
       <c r="B70" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C70" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.45829249364233</v>
+        <v>0.632362487147482</v>
       </c>
       <c r="E70" t="n">
-        <v>0.304570489141087</v>
+        <v>0.192598952024983</v>
       </c>
       <c r="F70" t="e">
         <v>#NUM!</v>
@@ -15172,16 +15187,16 @@
         <v>88</v>
       </c>
       <c r="B71" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="C71" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D71" t="n">
-        <v>0.921990573611647</v>
+        <v>2.51429029185591</v>
       </c>
       <c r="E71" t="n">
-        <v>0.206127928637467</v>
+        <v>0.518265449853552</v>
       </c>
       <c r="F71" t="e">
         <v>#NUM!</v>
@@ -15193,7 +15208,7 @@
         <v>0.0000229818275012672</v>
       </c>
       <c r="I71" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="72">
@@ -15201,16 +15216,16 @@
         <v>88</v>
       </c>
       <c r="B72" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="C72" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D72" t="n">
-        <v>0.617020999705638</v>
+        <v>1.85339853495309</v>
       </c>
       <c r="E72" t="n">
-        <v>0.272121009113961</v>
+        <v>0.504348679621771</v>
       </c>
       <c r="F72" t="e">
         <v>#NUM!</v>
@@ -15228,16 +15243,16 @@
         <v>88</v>
       </c>
       <c r="B73" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C73" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.304969573906009</v>
+        <v>0.737145802517899</v>
       </c>
       <c r="E73" t="n">
-        <v>0.287762628228417</v>
+        <v>0.212123013520096</v>
       </c>
       <c r="F73" t="e">
         <v>#NUM!</v>
@@ -15255,16 +15270,16 @@
         <v>96</v>
       </c>
       <c r="B74" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="C74" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D74" t="n">
-        <v>0.869600889980926</v>
+        <v>2.3859584035668</v>
       </c>
       <c r="E74" t="n">
-        <v>0.487613709654424</v>
+        <v>1.16342602824436</v>
       </c>
       <c r="F74" t="e">
         <v>#NUM!</v>
@@ -15282,16 +15297,16 @@
         <v>96</v>
       </c>
       <c r="B75" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="C75" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D75" t="n">
-        <v>0.693800130198513</v>
+        <v>2.00130632571318</v>
       </c>
       <c r="E75" t="n">
-        <v>0.82132956907839</v>
+        <v>1.64373206209186</v>
       </c>
       <c r="F75" t="e">
         <v>#NUM!</v>
@@ -15309,16 +15324,16 @@
         <v>96</v>
       </c>
       <c r="B76" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C76" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.175800759782413</v>
+        <v>0.83878508641282</v>
       </c>
       <c r="E76" t="n">
-        <v>0.87193409014805</v>
+        <v>0.731365311151116</v>
       </c>
       <c r="F76" t="e">
         <v>#NUM!</v>
@@ -15336,16 +15351,16 @@
         <v>96</v>
       </c>
       <c r="B77" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="C77" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D77" t="n">
-        <v>0.552739379279516</v>
+        <v>1.73800756455078</v>
       </c>
       <c r="E77" t="n">
-        <v>0.536354777801318</v>
+        <v>0.932188661101643</v>
       </c>
       <c r="F77" t="e">
         <v>#NUM!</v>
@@ -15363,16 +15378,16 @@
         <v>96</v>
       </c>
       <c r="B78" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="C78" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0789975748019625</v>
+        <v>1.0822016975137</v>
       </c>
       <c r="E78" t="n">
-        <v>0.643160593764914</v>
+        <v>0.696029486346308</v>
       </c>
       <c r="F78" t="e">
         <v>#NUM!</v>
@@ -15390,16 +15405,16 @@
         <v>96</v>
       </c>
       <c r="B79" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C79" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.473741804477553</v>
+        <v>0.622668001904477</v>
       </c>
       <c r="E79" t="n">
-        <v>0.693592666034849</v>
+        <v>0.431877959495518</v>
       </c>
       <c r="F79" t="e">
         <v>#NUM!</v>
@@ -15417,16 +15432,16 @@
         <v>100</v>
       </c>
       <c r="B80" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="C80" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.44080589301669</v>
+        <v>0.643517605711818</v>
       </c>
       <c r="E80" t="n">
-        <v>0.672438483815178</v>
+        <v>0.432726003093228</v>
       </c>
       <c r="F80" t="e">
         <v>#NUM!</v>
@@ -15444,16 +15459,16 @@
         <v>100</v>
       </c>
       <c r="B81" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="C81" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.590330678048558</v>
+        <v>0.55414401117367</v>
       </c>
       <c r="E81" t="n">
-        <v>1.1593304725398</v>
+        <v>0.642436038329071</v>
       </c>
       <c r="F81" t="e">
         <v>#NUM!</v>
@@ -15471,16 +15486,16 @@
         <v>100</v>
       </c>
       <c r="B82" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C82" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.149524785031868</v>
+        <v>0.861117094940567</v>
       </c>
       <c r="E82" t="n">
-        <v>1.1960620289212</v>
+        <v>1.02994945971334</v>
       </c>
       <c r="F82" t="e">
         <v>#NUM!</v>
@@ -15498,16 +15513,16 @@
         <v>100</v>
       </c>
       <c r="B83" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="C83" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.743143703967906</v>
+        <v>0.475616365771554</v>
       </c>
       <c r="E83" t="n">
-        <v>0.730551203366259</v>
+        <v>0.347462108355095</v>
       </c>
       <c r="F83" t="e">
         <v>#NUM!</v>
@@ -15525,16 +15540,16 @@
         <v>100</v>
       </c>
       <c r="B84" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="C84" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D84" t="n">
-        <v>-1.01418253587201</v>
+        <v>0.362698801939053</v>
       </c>
       <c r="E84" t="n">
-        <v>1.14070130310576</v>
+        <v>0.413730996006776</v>
       </c>
       <c r="F84" t="e">
         <v>#NUM!</v>
@@ -15552,16 +15567,16 @@
         <v>100</v>
       </c>
       <c r="B85" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C85" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.271038831904106</v>
+        <v>0.762586883129381</v>
       </c>
       <c r="E85" t="n">
-        <v>1.2108935573495</v>
+        <v>0.923411543700607</v>
       </c>
       <c r="F85" t="e">
         <v>#NUM!</v>
@@ -15579,10 +15594,10 @@
         <v>102</v>
       </c>
       <c r="B86" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C86" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D86" t="n">
         <v>0.126152323108064</v>
@@ -15606,10 +15621,10 @@
         <v>102</v>
       </c>
       <c r="B87" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C87" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D87" t="n">
         <v>1.39434556703912</v>
@@ -15627,7 +15642,7 @@
         <v>0.000246065286225949</v>
       </c>
       <c r="I87" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="88">
@@ -15635,10 +15650,10 @@
         <v>102</v>
       </c>
       <c r="B88" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C88" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D88" t="n">
         <v>1.26819324393106</v>
@@ -15656,7 +15671,7 @@
         <v>0.000917618594876157</v>
       </c>
       <c r="I88" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="89">
@@ -15664,10 +15679,10 @@
         <v>102</v>
       </c>
       <c r="B89" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C89" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D89" t="n">
         <v>-0.108886366786331</v>
@@ -15691,10 +15706,10 @@
         <v>102</v>
       </c>
       <c r="B90" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C90" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D90" t="n">
         <v>0.460559808225488</v>
@@ -15718,10 +15733,10 @@
         <v>102</v>
       </c>
       <c r="B91" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C91" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D91" t="n">
         <v>0.56944617501182</v>
@@ -15745,10 +15760,10 @@
         <v>111</v>
       </c>
       <c r="B92" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C92" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D92" t="n">
         <v>-0.100651146084083</v>
@@ -15772,10 +15787,10 @@
         <v>111</v>
       </c>
       <c r="B93" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C93" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D93" t="n">
         <v>0.896857127171803</v>
@@ -15793,7 +15808,7 @@
         <v>0.0180795186212225</v>
       </c>
       <c r="I93" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="94">
@@ -15801,10 +15816,10 @@
         <v>111</v>
       </c>
       <c r="B94" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C94" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D94" t="n">
         <v>0.997508273255885</v>
@@ -15822,7 +15837,7 @@
         <v>0.00742775469795143</v>
       </c>
       <c r="I94" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="95">
@@ -15830,10 +15845,10 @@
         <v>111</v>
       </c>
       <c r="B95" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C95" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D95" t="n">
         <v>-0.00691551717544128</v>
@@ -15857,10 +15872,10 @@
         <v>111</v>
       </c>
       <c r="B96" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C96" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D96" t="n">
         <v>0.584890732936927</v>
@@ -15884,10 +15899,10 @@
         <v>111</v>
       </c>
       <c r="B97" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C97" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D97" t="n">
         <v>0.591806250112369</v>
@@ -15911,10 +15926,10 @@
         <v>119</v>
       </c>
       <c r="B98" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C98" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D98" t="n">
         <v>-0.127603325293596</v>
@@ -15938,10 +15953,10 @@
         <v>119</v>
       </c>
       <c r="B99" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C99" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D99" t="n">
         <v>0.312399235489203</v>
@@ -15965,10 +15980,10 @@
         <v>119</v>
       </c>
       <c r="B100" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C100" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D100" t="n">
         <v>0.440002560782799</v>
@@ -15992,10 +16007,10 @@
         <v>119</v>
       </c>
       <c r="B101" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C101" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D101" t="n">
         <v>-0.0537644021438756</v>
@@ -16019,10 +16034,10 @@
         <v>119</v>
       </c>
       <c r="B102" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C102" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D102" t="n">
         <v>0.309270345752199</v>
@@ -16046,10 +16061,10 @@
         <v>119</v>
       </c>
       <c r="B103" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C103" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D103" t="n">
         <v>0.363034747896074</v>
@@ -16073,16 +16088,16 @@
         <v>126</v>
       </c>
       <c r="B104" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="C104" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D104" t="n">
-        <v>-0.133551747546008</v>
+        <v>0.874982189624965</v>
       </c>
       <c r="E104" t="n">
-        <v>0.211287270175523</v>
+        <v>0.184872598298061</v>
       </c>
       <c r="F104" t="e">
         <v>#NUM!</v>
@@ -16100,16 +16115,16 @@
         <v>126</v>
       </c>
       <c r="B105" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="C105" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D105" t="n">
-        <v>-1.76372764628393</v>
+        <v>0.171404735253427</v>
       </c>
       <c r="E105" t="n">
-        <v>0.608050985018536</v>
+        <v>0.104222818107687</v>
       </c>
       <c r="F105" t="e">
         <v>#NUM!</v>
@@ -16121,7 +16136,7 @@
         <v>0.0104083365211607</v>
       </c>
       <c r="I105" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="106">
@@ -16129,16 +16144,16 @@
         <v>126</v>
       </c>
       <c r="B106" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C106" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D106" t="n">
-        <v>-1.63017589873792</v>
+        <v>0.195895113392987</v>
       </c>
       <c r="E106" t="n">
-        <v>0.610493639989046</v>
+        <v>0.119592720831352</v>
       </c>
       <c r="F106" t="e">
         <v>#NUM!</v>
@@ -16150,7 +16165,7 @@
         <v>0.0207059958926852</v>
       </c>
       <c r="I106" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="107">
@@ -16158,16 +16173,16 @@
         <v>126</v>
       </c>
       <c r="B107" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="C107" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D107" t="n">
-        <v>-0.371527354512735</v>
+        <v>0.689680139706928</v>
       </c>
       <c r="E107" t="n">
-        <v>0.290650091962315</v>
+        <v>0.200455596030401</v>
       </c>
       <c r="F107" t="e">
         <v>#NUM!</v>
@@ -16185,16 +16200,16 @@
         <v>126</v>
       </c>
       <c r="B108" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="C108" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D108" t="n">
-        <v>-0.523742284229854</v>
+        <v>0.592299840949326</v>
       </c>
       <c r="E108" t="n">
-        <v>0.418236407484771</v>
+        <v>0.247721357632447</v>
       </c>
       <c r="F108" t="e">
         <v>#NUM!</v>
@@ -16212,16 +16227,16 @@
         <v>126</v>
       </c>
       <c r="B109" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C109" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D109" t="n">
-        <v>-0.152214929717119</v>
+        <v>0.858803678471903</v>
       </c>
       <c r="E109" t="n">
-        <v>0.436390210098744</v>
+        <v>0.374773517681928</v>
       </c>
       <c r="F109" t="e">
         <v>#NUM!</v>
@@ -16239,10 +16254,10 @@
         <v>135</v>
       </c>
       <c r="B110" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C110" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D110" t="n">
         <v>0.0873683911031271</v>
@@ -16266,10 +16281,10 @@
         <v>135</v>
       </c>
       <c r="B111" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C111" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D111" t="n">
         <v>-1.45612400167896</v>
@@ -16287,7 +16302,7 @@
         <v>0.0000821053994085608</v>
       </c>
       <c r="I111" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="112">
@@ -16295,10 +16310,10 @@
         <v>135</v>
       </c>
       <c r="B112" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C112" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D112" t="n">
         <v>-1.54349239278209</v>
@@ -16316,7 +16331,7 @@
         <v>0.0000295510800160104</v>
       </c>
       <c r="I112" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="113">
@@ -16324,10 +16339,10 @@
         <v>135</v>
       </c>
       <c r="B113" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C113" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D113" t="n">
         <v>-0.204581948811449</v>
@@ -16351,10 +16366,10 @@
         <v>135</v>
       </c>
       <c r="B114" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C114" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D114" t="n">
         <v>-0.307570170666972</v>
@@ -16378,10 +16393,10 @@
         <v>135</v>
       </c>
       <c r="B115" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C115" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D115" t="n">
         <v>-0.102988221855522</v>
@@ -16405,16 +16420,16 @@
         <v>143</v>
       </c>
       <c r="B116" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="C116" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D116" t="n">
-        <v>0.00820882969535104</v>
+        <v>1.00824261451918</v>
       </c>
       <c r="E116" t="n">
-        <v>0.127025788196296</v>
+        <v>0.128072812802394</v>
       </c>
       <c r="F116" t="e">
         <v>#NUM!</v>
@@ -16432,16 +16447,16 @@
         <v>143</v>
       </c>
       <c r="B117" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="C117" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D117" t="n">
-        <v>-0.198830150150606</v>
+        <v>0.819689105581134</v>
       </c>
       <c r="E117" t="n">
-        <v>0.201134158138713</v>
+        <v>0.164867478186536</v>
       </c>
       <c r="F117" t="e">
         <v>#NUM!</v>
@@ -16459,16 +16474,16 @@
         <v>143</v>
       </c>
       <c r="B118" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C118" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D118" t="n">
-        <v>-0.207038979845957</v>
+        <v>0.812987959224509</v>
       </c>
       <c r="E118" t="n">
-        <v>0.200572200310113</v>
+        <v>0.163062783807288</v>
       </c>
       <c r="F118" t="e">
         <v>#NUM!</v>
@@ -16486,16 +16501,16 @@
         <v>143</v>
       </c>
       <c r="B119" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="C119" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D119" t="n">
-        <v>0.0785243655517327</v>
+        <v>1.0816897108078</v>
       </c>
       <c r="E119" t="n">
-        <v>0.125314836499501</v>
+        <v>0.135551769253072</v>
       </c>
       <c r="F119" t="e">
         <v>#NUM!</v>
@@ -16513,16 +16528,16 @@
         <v>143</v>
       </c>
       <c r="B120" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="C120" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D120" t="n">
-        <v>-0.141238295310022</v>
+        <v>0.86828237942436</v>
       </c>
       <c r="E120" t="n">
-        <v>0.166211119430699</v>
+        <v>0.144318186266074</v>
       </c>
       <c r="F120" t="e">
         <v>#NUM!</v>
@@ -16540,16 +16555,16 @@
         <v>143</v>
       </c>
       <c r="B121" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C121" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D121" t="n">
-        <v>-0.219762660861755</v>
+        <v>0.802709289687089</v>
       </c>
       <c r="E121" t="n">
-        <v>0.165842830542904</v>
+        <v>0.133123580704791</v>
       </c>
       <c r="F121" t="e">
         <v>#NUM!</v>
@@ -16567,10 +16582,10 @@
         <v>150</v>
       </c>
       <c r="B122" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C122" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D122" t="n">
         <v>-0.0038015260315104</v>
@@ -16594,10 +16609,10 @@
         <v>150</v>
       </c>
       <c r="B123" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C123" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D123" t="n">
         <v>0.895916563803436</v>
@@ -16615,7 +16630,7 @@
         <v>0.0358905832357572</v>
       </c>
       <c r="I123" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="124">
@@ -16623,10 +16638,10 @@
         <v>150</v>
       </c>
       <c r="B124" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C124" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D124" t="n">
         <v>0.899718089834946</v>
@@ -16644,7 +16659,7 @@
         <v>0.0343147894897311</v>
       </c>
       <c r="I124" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="125">
@@ -16652,10 +16667,10 @@
         <v>150</v>
       </c>
       <c r="B125" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C125" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D125" t="n">
         <v>0.143412359183928</v>
@@ -16679,10 +16694,10 @@
         <v>150</v>
       </c>
       <c r="B126" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C126" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D126" t="n">
         <v>-0.0996021266789031</v>
@@ -16706,10 +16721,10 @@
         <v>150</v>
       </c>
       <c r="B127" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C127" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D127" t="n">
         <v>-0.243014485862832</v>
@@ -16733,10 +16748,10 @@
         <v>158</v>
       </c>
       <c r="B128" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C128" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D128" t="n">
         <v>-0.0281473310066135</v>
@@ -16760,10 +16775,10 @@
         <v>158</v>
       </c>
       <c r="B129" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C129" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D129" t="n">
         <v>0.863974163598643</v>
@@ -16781,7 +16796,7 @@
         <v>0.0054180244466594</v>
       </c>
       <c r="I129" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="130">
@@ -16789,10 +16804,10 @@
         <v>158</v>
       </c>
       <c r="B130" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C130" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D130" t="n">
         <v>0.892121494605256</v>
@@ -16810,7 +16825,7 @@
         <v>0.00388233278674954</v>
       </c>
       <c r="I130" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="131">
@@ -16818,10 +16833,10 @@
         <v>158</v>
       </c>
       <c r="B131" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C131" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D131" t="n">
         <v>-0.0295605982645116</v>
@@ -16845,10 +16860,10 @@
         <v>158</v>
       </c>
       <c r="B132" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C132" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D132" t="n">
         <v>-0.126853599349738</v>
@@ -16872,10 +16887,10 @@
         <v>158</v>
       </c>
       <c r="B133" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C133" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D133" t="n">
         <v>-0.0972930010852259</v>
@@ -16899,10 +16914,10 @@
         <v>165</v>
       </c>
       <c r="B134" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C134" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D134" t="n">
         <v>-0.0314653872359056</v>
@@ -16926,10 +16941,10 @@
         <v>165</v>
       </c>
       <c r="B135" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C135" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D135" t="n">
         <v>-0.538700363642176</v>
@@ -16953,10 +16968,10 @@
         <v>165</v>
       </c>
       <c r="B136" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C136" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D136" t="n">
         <v>-0.507234976406271</v>
@@ -16980,10 +16995,10 @@
         <v>165</v>
       </c>
       <c r="B137" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C137" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D137" t="n">
         <v>0.0000000000000000416333634234434</v>
@@ -17007,10 +17022,10 @@
         <v>165</v>
       </c>
       <c r="B138" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C138" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D138" t="n">
         <v>0.0396317129655258</v>
@@ -17034,10 +17049,10 @@
         <v>165</v>
       </c>
       <c r="B139" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C139" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D139" t="n">
         <v>0.0396317129655257</v>
@@ -17061,10 +17076,10 @@
         <v>172</v>
       </c>
       <c r="B140" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C140" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D140" t="n">
         <v>0.261895310806015</v>
@@ -17088,10 +17103,10 @@
         <v>172</v>
       </c>
       <c r="B141" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C141" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D141" t="n">
         <v>0.674072316509772</v>
@@ -17109,7 +17124,7 @@
         <v>0.0279814380508187</v>
       </c>
       <c r="I141" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="142">
@@ -17117,10 +17132,10 @@
         <v>172</v>
       </c>
       <c r="B142" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C142" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D142" t="n">
         <v>0.412177005703757</v>
@@ -17144,10 +17159,10 @@
         <v>172</v>
       </c>
       <c r="B143" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C143" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D143" t="n">
         <v>0.394595665092338</v>
@@ -17165,7 +17180,7 @@
         <v>0.041631559193477</v>
       </c>
       <c r="I143" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="144">
@@ -17173,10 +17188,10 @@
         <v>172</v>
       </c>
       <c r="B144" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C144" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D144" t="n">
         <v>0.238758464792179</v>
@@ -17200,10 +17215,10 @@
         <v>172</v>
       </c>
       <c r="B145" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C145" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D145" t="n">
         <v>-0.155837200300159</v>
@@ -17227,10 +17242,10 @@
         <v>180</v>
       </c>
       <c r="B146" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C146" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D146" t="n">
         <v>0.518393227021798</v>
@@ -17248,7 +17263,7 @@
         <v>0.045477850758905</v>
       </c>
       <c r="I146" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="147">
@@ -17256,10 +17271,10 @@
         <v>180</v>
       </c>
       <c r="B147" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C147" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D147" t="n">
         <v>0.579767335771366</v>
@@ -17283,10 +17298,10 @@
         <v>180</v>
       </c>
       <c r="B148" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C148" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D148" t="n">
         <v>0.0613741087495684</v>
@@ -17310,10 +17325,10 @@
         <v>180</v>
       </c>
       <c r="B149" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C149" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D149" t="n">
         <v>0.414942680492845</v>
@@ -17337,10 +17352,10 @@
         <v>180</v>
       </c>
       <c r="B150" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C150" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D150" t="n">
         <v>0.17272697070834</v>
@@ -17364,10 +17379,10 @@
         <v>180</v>
       </c>
       <c r="B151" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C151" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D151" t="n">
         <v>-0.242215709784506</v>
@@ -17391,10 +17406,10 @@
         <v>188</v>
       </c>
       <c r="B152" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C152" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D152" t="n">
         <v>0.0952766079351775</v>
@@ -17418,10 +17433,10 @@
         <v>188</v>
       </c>
       <c r="B153" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C153" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D153" t="n">
         <v>-0.301931432096856</v>
@@ -17445,10 +17460,10 @@
         <v>188</v>
       </c>
       <c r="B154" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C154" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D154" t="n">
         <v>-0.397208040032033</v>
@@ -17472,10 +17487,10 @@
         <v>188</v>
       </c>
       <c r="B155" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C155" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D155" t="n">
         <v>0.0631249284939516</v>
@@ -17499,10 +17514,10 @@
         <v>188</v>
       </c>
       <c r="B156" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C156" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D156" t="n">
         <v>-0.391034970582634</v>
@@ -17526,10 +17541,10 @@
         <v>188</v>
       </c>
       <c r="B157" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C157" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D157" t="n">
         <v>-0.454159899076586</v>
@@ -17553,10 +17568,10 @@
         <v>195</v>
       </c>
       <c r="B158" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C158" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D158" t="n">
         <v>0.130827181741233</v>
@@ -17580,10 +17595,10 @@
         <v>195</v>
       </c>
       <c r="B159" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C159" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D159" t="n">
         <v>-0.196817267834845</v>
@@ -17607,10 +17622,10 @@
         <v>195</v>
       </c>
       <c r="B160" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C160" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D160" t="n">
         <v>-0.327644449576078</v>
@@ -17634,10 +17649,10 @@
         <v>195</v>
       </c>
       <c r="B161" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C161" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D161" t="n">
         <v>0.0988184660650509</v>
@@ -17661,10 +17676,10 @@
         <v>195</v>
       </c>
       <c r="B162" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C162" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D162" t="n">
         <v>-0.400256067702642</v>
@@ -17688,10 +17703,10 @@
         <v>195</v>
       </c>
       <c r="B163" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C163" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D163" t="n">
         <v>-0.499074533767693</v>
@@ -17715,10 +17730,10 @@
         <v>202</v>
       </c>
       <c r="B164" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C164" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D164" t="n">
         <v>0.204286245639754</v>
@@ -17742,10 +17757,10 @@
         <v>202</v>
       </c>
       <c r="B165" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C165" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D165" t="n">
         <v>-0.373326527217932</v>
@@ -17769,10 +17784,10 @@
         <v>202</v>
       </c>
       <c r="B166" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C166" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D166" t="n">
         <v>-0.577612772857686</v>
@@ -17796,10 +17811,10 @@
         <v>202</v>
       </c>
       <c r="B167" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C167" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D167" t="n">
         <v>-0.0600347745041385</v>
@@ -17823,10 +17838,10 @@
         <v>202</v>
       </c>
       <c r="B168" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C168" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D168" t="n">
         <v>-0.460819602865473</v>
@@ -17850,10 +17865,10 @@
         <v>202</v>
       </c>
       <c r="B169" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C169" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D169" t="n">
         <v>-0.400784828361335</v>
@@ -17877,10 +17892,10 @@
         <v>209</v>
       </c>
       <c r="B170" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C170" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D170" t="n">
         <v>-0.0258413189316592</v>
@@ -17904,10 +17919,10 @@
         <v>209</v>
       </c>
       <c r="B171" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C171" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D171" t="n">
         <v>-0.435783731531188</v>
@@ -17931,10 +17946,10 @@
         <v>209</v>
       </c>
       <c r="B172" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C172" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D172" t="n">
         <v>-0.409942412599529</v>
@@ -17958,10 +17973,10 @@
         <v>209</v>
       </c>
       <c r="B173" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C173" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D173" t="n">
         <v>-0.00992119067111318</v>
@@ -17985,10 +18000,10 @@
         <v>209</v>
       </c>
       <c r="B174" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C174" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D174" t="n">
         <v>-0.139594746884664</v>
@@ -18012,10 +18027,10 @@
         <v>209</v>
       </c>
       <c r="B175" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C175" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D175" t="n">
         <v>-0.12967355621355</v>
@@ -18039,10 +18054,10 @@
         <v>216</v>
       </c>
       <c r="B176" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C176" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D176" t="n">
         <v>-0.151281515794447</v>
@@ -18066,10 +18081,10 @@
         <v>216</v>
       </c>
       <c r="B177" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C177" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D177" t="n">
         <v>-0.403083996394981</v>
@@ -18093,10 +18108,10 @@
         <v>216</v>
       </c>
       <c r="B178" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C178" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D178" t="n">
         <v>-0.251802480600534</v>
@@ -18120,10 +18135,10 @@
         <v>216</v>
       </c>
       <c r="B179" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C179" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D179" t="n">
         <v>0.0814236634002305</v>
@@ -18147,10 +18162,10 @@
         <v>216</v>
       </c>
       <c r="B180" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C180" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D180" t="n">
         <v>0.212514043593389</v>
@@ -18174,10 +18189,10 @@
         <v>216</v>
       </c>
       <c r="B181" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C181" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D181" t="n">
         <v>0.131090380193158</v>
@@ -18201,16 +18216,16 @@
         <v>223</v>
       </c>
       <c r="B182" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="C182" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D182" t="n">
-        <v>0.49510699734469</v>
+        <v>1.64067377740349</v>
       </c>
       <c r="E182" t="n">
-        <v>0.200294999284572</v>
+        <v>0.328618753071248</v>
       </c>
       <c r="F182" t="e">
         <v>#NUM!</v>
@@ -18222,7 +18237,7 @@
         <v>0.0358410201103834</v>
       </c>
       <c r="I182" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="183">
@@ -18230,16 +18245,16 @@
         <v>223</v>
       </c>
       <c r="B183" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="C183" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D183" t="n">
-        <v>0.664126134033941</v>
+        <v>1.94279203947974</v>
       </c>
       <c r="E183" t="n">
-        <v>0.321298376499125</v>
+        <v>0.624215928160264</v>
       </c>
       <c r="F183" t="e">
         <v>#NUM!</v>
@@ -18257,16 +18272,16 @@
         <v>223</v>
       </c>
       <c r="B184" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C184" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D184" t="n">
-        <v>0.169019136689251</v>
+        <v>1.18414279927993</v>
       </c>
       <c r="E184" t="n">
-        <v>0.333036992985943</v>
+        <v>0.394363357138144</v>
       </c>
       <c r="F184" t="e">
         <v>#NUM!</v>
@@ -18284,16 +18299,16 @@
         <v>223</v>
       </c>
       <c r="B185" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="C185" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D185" t="n">
-        <v>0.40724145496049</v>
+        <v>1.50266688823649</v>
       </c>
       <c r="E185" t="n">
-        <v>0.195715938916358</v>
+        <v>0.294095860909727</v>
       </c>
       <c r="F185" t="e">
         <v>#NUM!</v>
@@ -18311,16 +18326,16 @@
         <v>223</v>
       </c>
       <c r="B186" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="C186" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D186" t="n">
-        <v>0.0705112389412703</v>
+        <v>1.07305662938338</v>
       </c>
       <c r="E186" t="n">
-        <v>0.253780463002046</v>
+        <v>0.272320808232329</v>
       </c>
       <c r="F186" t="e">
         <v>#NUM!</v>
@@ -18338,16 +18353,16 @@
         <v>223</v>
       </c>
       <c r="B187" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C187" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D187" t="n">
-        <v>-0.33673021601922</v>
+        <v>0.714101467054155</v>
       </c>
       <c r="E187" t="n">
-        <v>0.266091402318647</v>
+        <v>0.190016260766243</v>
       </c>
       <c r="F187" t="e">
         <v>#NUM!</v>
@@ -18362,19 +18377,19 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B188" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="C188" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D188" t="n">
-        <v>0.58569869218538</v>
+        <v>1.79624557004752</v>
       </c>
       <c r="E188" t="n">
-        <v>0.283269611422703</v>
+        <v>0.508821784647111</v>
       </c>
       <c r="F188" t="e">
         <v>#NUM!</v>
@@ -18389,19 +18404,19 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B189" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="C189" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D189" t="n">
-        <v>0.74738415137493</v>
+        <v>2.11146950167851</v>
       </c>
       <c r="E189" t="n">
-        <v>0.472979632585059</v>
+        <v>0.998682069118458</v>
       </c>
       <c r="F189" t="e">
         <v>#NUM!</v>
@@ -18416,19 +18431,19 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B190" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C190" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D190" t="n">
-        <v>0.16168545918955</v>
+        <v>1.17549044344903</v>
       </c>
       <c r="E190" t="n">
-        <v>0.494744294665317</v>
+        <v>0.58156719033001</v>
       </c>
       <c r="F190" t="e">
         <v>#NUM!</v>
@@ -18443,19 +18458,19 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B191" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="C191" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D191" t="n">
-        <v>0.475691830318426</v>
+        <v>1.60912705537009</v>
       </c>
       <c r="E191" t="n">
-        <v>0.286147452522716</v>
+        <v>0.46044760767953</v>
       </c>
       <c r="F191" t="e">
         <v>#NUM!</v>
@@ -18470,19 +18485,19 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B192" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="C192" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D192" t="n">
-        <v>1.05783083565393</v>
+        <v>2.88011676190433</v>
       </c>
       <c r="E192" t="n">
-        <v>0.464858187915603</v>
+        <v>1.3388458589242</v>
       </c>
       <c r="F192" t="e">
         <v>#NUM!</v>
@@ -18497,19 +18512,19 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B193" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C193" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D193" t="n">
-        <v>0.582139005335504</v>
+        <v>1.78986286526761</v>
       </c>
       <c r="E193" t="n">
-        <v>0.482753315993569</v>
+        <v>0.864062233381689</v>
       </c>
       <c r="F193" t="e">
         <v>#NUM!</v>
@@ -18524,19 +18539,19 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B194" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="C194" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D194" t="n">
-        <v>0.796179533131963</v>
+        <v>2.21705454440856</v>
       </c>
       <c r="E194" t="n">
-        <v>0.500177101936199</v>
+        <v>1.10891991685675</v>
       </c>
       <c r="F194" t="e">
         <v>#NUM!</v>
@@ -18551,19 +18566,19 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B195" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="C195" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D195" t="n">
-        <v>0.466581371643793</v>
+        <v>1.59453374663545</v>
       </c>
       <c r="E195" t="n">
-        <v>0.689231664774742</v>
+        <v>1.09900314873306</v>
       </c>
       <c r="F195" t="e">
         <v>#NUM!</v>
@@ -18578,19 +18593,19 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B196" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C196" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D196" t="n">
-        <v>-0.32959816148817</v>
+        <v>0.719212682726677</v>
       </c>
       <c r="E196" t="n">
-        <v>0.751268487861734</v>
+        <v>0.540321824603051</v>
       </c>
       <c r="F196" t="e">
         <v>#NUM!</v>
@@ -18605,19 +18620,19 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B197" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="C197" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D197" t="n">
-        <v>1.22633513968394</v>
+        <v>3.40871415549924</v>
       </c>
       <c r="E197" t="n">
-        <v>0.663135647329607</v>
+        <v>2.26043986806858</v>
       </c>
       <c r="F197" t="e">
         <v>#NUM!</v>
@@ -18632,19 +18647,19 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B198" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="C198" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D198" t="n">
-        <v>25.4931449652921</v>
+        <v>117904989728.181</v>
       </c>
       <c r="E198" t="n">
-        <v>724.077881209903</v>
+        <v>85372395146456.5</v>
       </c>
       <c r="F198" t="e">
         <v>#NUM!</v>
@@ -18659,19 +18674,19 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B199" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C199" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D199" t="n">
-        <v>24.2668098256081</v>
+        <v>34589286267.3645</v>
       </c>
       <c r="E199" t="n">
-        <v>724.078371250534</v>
+        <v>25045354063191.8</v>
       </c>
       <c r="F199" t="e">
         <v>#NUM!</v>
